--- a/Envizi-SCI Data Dictionary.xlsx
+++ b/Envizi-SCI Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\903106897\Box\Sustainability Platform\2.4 Products - implementation\5. Content drafts\5. Configuring\E-SCI-data-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECAEE3D-4A5F-4099-98AA-8DC831702854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180DA52-8369-4AD8-89EB-A59498A0C80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27240" yWindow="5235" windowWidth="30360" windowHeight="26325" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23655" yWindow="5130" windowWidth="33540" windowHeight="24495" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Data object summary" sheetId="37" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="993">
   <si>
     <t>Composite</t>
   </si>
@@ -1243,9 +1243,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>Guangdong Sheng</t>
-  </si>
-  <si>
     <t>Name of the location city.</t>
   </si>
   <si>
@@ -1271,12 +1268,6 @@
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Country name. A country code that is translated into a string.</t>
   </si>
   <si>
     <t>countyRegion</t>
@@ -3036,6 +3027,21 @@
   </si>
   <si>
     <t>preferredPcfRecordProvider</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>County or region of the location.</t>
+  </si>
+  <si>
+    <t>Guangdong sheng</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>ORGANIZATION, CUSTOMER, SUPPLIER</t>
   </si>
 </sst>
 </file>
@@ -3478,7 +3484,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3839,6 +3845,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5170,7 +5179,7 @@
   <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5757,9 +5766,9 @@
   <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F77" sqref="F76:F77"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6706,7 +6715,7 @@
         <v>97</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I30" s="40" t="s">
         <v>11</v>
@@ -6796,13 +6805,13 @@
         <v>314</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I33" s="108" t="s">
         <v>19</v>
@@ -6811,7 +6820,7 @@
         <v>247</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -7073,8 +7082,8 @@
       <c r="G42" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="H42" s="82" t="s">
-        <v>174</v>
+      <c r="H42" s="162" t="s">
+        <v>992</v>
       </c>
       <c r="I42" s="83" t="s">
         <v>11</v>
@@ -7234,14 +7243,14 @@
         <v>392</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>393</v>
+        <v>991</v>
       </c>
       <c r="I47" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J47" s="70"/>
       <c r="K47" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -7260,10 +7269,10 @@
         <v>319</v>
       </c>
       <c r="F48" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" s="68" t="s">
         <v>395</v>
-      </c>
-      <c r="G48" s="68" t="s">
-        <v>396</v>
       </c>
       <c r="H48" s="69">
         <v>518057</v>
@@ -7273,7 +7282,7 @@
       </c>
       <c r="J48" s="70"/>
       <c r="K48" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7292,20 +7301,20 @@
         <v>319</v>
       </c>
       <c r="F49" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="G49" s="68" t="s">
+      <c r="H49" s="69" t="s">
         <v>399</v>
-      </c>
-      <c r="H49" s="69" t="s">
-        <v>400</v>
       </c>
       <c r="I49" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J49" s="70"/>
       <c r="K49" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7327,16 +7336,16 @@
         <v>304</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>403</v>
+        <v>988</v>
       </c>
       <c r="I50" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J50" s="70"/>
-      <c r="K50" s="41" t="s">
+      <c r="K50" s="77" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7356,20 +7365,20 @@
         <v>314</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G51" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H51" s="76" t="s">
-        <v>155</v>
+        <v>990</v>
       </c>
       <c r="I51" s="75" t="s">
         <v>11</v>
       </c>
       <c r="J51" s="75"/>
       <c r="K51" s="77" t="s">
-        <v>407</v>
+        <v>989</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7393,8 +7402,8 @@
       <c r="G52" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="H52" s="76" t="s">
-        <v>155</v>
+      <c r="H52" s="69" t="s">
+        <v>27</v>
       </c>
       <c r="I52" s="75" t="s">
         <v>11</v>
@@ -7420,20 +7429,20 @@
         <v>314</v>
       </c>
       <c r="F53" s="68" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G53" s="68" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H53" s="69" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I53" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J53" s="70"/>
       <c r="K53" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7452,20 +7461,20 @@
         <v>319</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G54" s="68" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I54" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J54" s="70"/>
       <c r="K54" s="34" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7484,20 +7493,20 @@
         <v>314</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G55" s="68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I55" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J55" s="70"/>
       <c r="K55" s="34" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7516,20 +7525,20 @@
         <v>314</v>
       </c>
       <c r="F56" s="68" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="H56" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="I56" s="70" t="s">
         <v>419</v>
-      </c>
-      <c r="G56" s="68" t="s">
-        <v>420</v>
-      </c>
-      <c r="H56" s="69" t="s">
-        <v>421</v>
-      </c>
-      <c r="I56" s="70" t="s">
-        <v>422</v>
       </c>
       <c r="J56" s="70"/>
       <c r="K56" s="41" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7548,20 +7557,20 @@
         <v>314</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G57" s="68" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I57" s="84" t="s">
         <v>11</v>
       </c>
       <c r="J57" s="84"/>
       <c r="K57" s="41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -7624,7 +7633,7 @@
       </c>
       <c r="J59" s="70"/>
       <c r="K59" s="41" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -7694,7 +7703,7 @@
         <v>81</v>
       </c>
       <c r="H62" s="86" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I62" s="87" t="s">
         <v>19</v>
@@ -7703,7 +7712,7 @@
         <v>248</v>
       </c>
       <c r="K62" s="41" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -7728,7 +7737,7 @@
         <v>92</v>
       </c>
       <c r="H63" s="46" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I63" s="47" t="s">
         <v>11</v>
@@ -7820,20 +7829,20 @@
         <v>314</v>
       </c>
       <c r="F66" s="53" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G66" s="53" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H66" s="54" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I66" s="55" t="s">
         <v>11</v>
       </c>
       <c r="J66" s="55"/>
       <c r="K66" s="41" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -7884,20 +7893,20 @@
         <v>314</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G68" s="75" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I68" s="75" t="s">
         <v>11</v>
       </c>
       <c r="J68" s="75"/>
       <c r="K68" s="77" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -7916,20 +7925,20 @@
         <v>314</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G69" s="68" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I69" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J69" s="70"/>
       <c r="K69" s="41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -7992,7 +8001,7 @@
       </c>
       <c r="J71" s="70"/>
       <c r="K71" s="41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -8056,20 +8065,20 @@
         <v>241</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G74" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H74" s="67" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I74" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J74" s="80"/>
       <c r="K74" s="41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8088,20 +8097,20 @@
         <v>319</v>
       </c>
       <c r="F75" s="68" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G75" s="68" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I75" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J75" s="80"/>
       <c r="K75" s="41" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8120,20 +8129,20 @@
         <v>241</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G76" s="68" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H76" s="69" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I76" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J76" s="80"/>
       <c r="K76" s="41" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8152,20 +8161,20 @@
         <v>241</v>
       </c>
       <c r="F77" s="68" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G77" s="68" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H77" s="92" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I77" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J77" s="80"/>
       <c r="K77" s="41" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -8184,20 +8193,20 @@
         <v>319</v>
       </c>
       <c r="F78" s="68" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G78" s="68" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H78" s="69" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I78" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J78" s="80"/>
       <c r="K78" s="41" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8216,20 +8225,20 @@
         <v>314</v>
       </c>
       <c r="F79" s="68" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G79" s="68" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H79" s="69" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I79" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="80"/>
       <c r="K79" s="41" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -8260,7 +8269,7 @@
       </c>
       <c r="J80" s="70"/>
       <c r="K80" s="41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -8356,20 +8365,20 @@
         <v>314</v>
       </c>
       <c r="F84" s="81" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G84" s="81" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H84" s="82" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I84" s="83" t="s">
         <v>11</v>
       </c>
       <c r="J84" s="83"/>
       <c r="K84" s="41" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -8524,20 +8533,20 @@
         <v>319</v>
       </c>
       <c r="F89" s="68" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G89" s="68" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H89" s="69" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I89" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J89" s="70"/>
       <c r="K89" s="34" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -8716,10 +8725,10 @@
         <v>314</v>
       </c>
       <c r="F95" s="68" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G95" s="68" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H95" s="69" t="s">
         <v>238</v>
@@ -8729,7 +8738,7 @@
       </c>
       <c r="J95" s="70"/>
       <c r="K95" s="34" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -8748,20 +8757,20 @@
         <v>314</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G96" s="68" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H96" s="69" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="70" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J96" s="70"/>
       <c r="K96" s="41" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -8908,10 +8917,10 @@
         <v>319</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G101" s="103" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H101" s="69">
         <v>5</v>
@@ -8921,7 +8930,7 @@
       </c>
       <c r="J101" s="70"/>
       <c r="K101" s="104" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -8940,10 +8949,10 @@
         <v>319</v>
       </c>
       <c r="F102" s="68" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G102" s="68" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H102" s="69">
         <v>5</v>
@@ -8953,7 +8962,7 @@
       </c>
       <c r="J102" s="70"/>
       <c r="K102" s="41" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -8972,10 +8981,10 @@
         <v>314</v>
       </c>
       <c r="F103" s="103" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G103" s="105" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H103" s="106">
         <v>199</v>
@@ -8985,7 +8994,7 @@
       </c>
       <c r="J103" s="70"/>
       <c r="K103" s="34" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -9004,20 +9013,20 @@
         <v>314</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G104" s="105" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H104" s="106" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I104" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J104" s="70"/>
       <c r="K104" s="41" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -9036,20 +9045,20 @@
         <v>314</v>
       </c>
       <c r="F105" s="103" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G105" s="105" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H105" s="106" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I105" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J105" s="70"/>
       <c r="K105" s="34" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -9068,20 +9077,20 @@
         <v>314</v>
       </c>
       <c r="F106" s="103" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G106" s="105" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H106" s="106" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I106" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J106" s="70"/>
       <c r="K106" s="41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -9100,20 +9109,20 @@
         <v>314</v>
       </c>
       <c r="F107" s="68" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G107" s="68" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H107" s="69" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I107" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J107" s="70"/>
       <c r="K107" s="34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -9132,20 +9141,20 @@
         <v>314</v>
       </c>
       <c r="F108" s="68" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G108" s="68" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H108" s="69" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I108" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J108" s="70"/>
       <c r="K108" s="41" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -9164,10 +9173,10 @@
         <v>314</v>
       </c>
       <c r="F109" s="68" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G109" s="68" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H109" s="69">
         <v>978745243</v>
@@ -9177,7 +9186,7 @@
       </c>
       <c r="J109" s="70"/>
       <c r="K109" s="41" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -9196,10 +9205,10 @@
         <v>314</v>
       </c>
       <c r="F110" s="68" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G110" s="68" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H110" s="69">
         <v>42342</v>
@@ -9209,7 +9218,7 @@
       </c>
       <c r="J110" s="70"/>
       <c r="K110" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -9228,20 +9237,20 @@
         <v>314</v>
       </c>
       <c r="F111" s="68" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G111" s="68" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H111" s="69" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I111" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J111" s="70"/>
       <c r="K111" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -9260,20 +9269,20 @@
         <v>314</v>
       </c>
       <c r="F112" s="68" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G112" s="68" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H112" s="69" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I112" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J112" s="70"/>
       <c r="K112" s="41" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -9292,20 +9301,20 @@
         <v>314</v>
       </c>
       <c r="F113" s="68" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G113" s="68" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H113" s="69" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I113" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J113" s="70"/>
       <c r="K113" s="41" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -9368,7 +9377,7 @@
       </c>
       <c r="J115" s="70"/>
       <c r="K115" s="41" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -9605,17 +9614,17 @@
         <v>335</v>
       </c>
       <c r="G123" s="68" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H123" s="69" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I123" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J123" s="70"/>
       <c r="K123" s="41" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -9634,20 +9643,20 @@
         <v>314</v>
       </c>
       <c r="F124" s="68" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G124" s="68" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H124" s="69" t="b">
         <v>0</v>
       </c>
       <c r="I124" s="70" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J124" s="70"/>
       <c r="K124" s="41" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -9826,10 +9835,10 @@
         <v>314</v>
       </c>
       <c r="F130" s="68" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G130" s="68" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H130" s="69" t="s">
         <v>238</v>
@@ -9839,7 +9848,7 @@
       </c>
       <c r="J130" s="70"/>
       <c r="K130" s="34" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -10019,20 +10028,20 @@
         <v>314</v>
       </c>
       <c r="F136" s="68" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G136" s="68" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H136" s="69" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I136" s="70" t="s">
         <v>47</v>
       </c>
       <c r="J136" s="70"/>
       <c r="K136" s="41" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -10051,20 +10060,20 @@
         <v>314</v>
       </c>
       <c r="F137" s="68" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G137" s="68" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H137" s="69" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I137" s="70" t="s">
         <v>47</v>
       </c>
       <c r="J137" s="70"/>
       <c r="K137" s="41" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10083,20 +10092,20 @@
         <v>314</v>
       </c>
       <c r="F138" s="68" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G138" s="68" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H138" s="69" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I138" s="70" t="s">
         <v>47</v>
       </c>
       <c r="J138" s="70"/>
       <c r="K138" s="41" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10115,10 +10124,10 @@
         <v>319</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H139" s="69">
         <v>5</v>
@@ -10128,7 +10137,7 @@
       </c>
       <c r="J139" s="70"/>
       <c r="K139" s="41" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -10153,14 +10162,14 @@
         <v>6</v>
       </c>
       <c r="H140" s="69" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I140" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J140" s="70"/>
       <c r="K140" s="104" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -10179,20 +10188,20 @@
         <v>314</v>
       </c>
       <c r="F141" s="103" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G141" s="103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H141" s="69" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I141" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J141" s="70"/>
       <c r="K141" s="104" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10211,20 +10220,20 @@
         <v>314</v>
       </c>
       <c r="F142" s="103" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G142" s="103" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H142" s="69" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I142" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J142" s="70"/>
       <c r="K142" s="104" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10243,20 +10252,20 @@
         <v>314</v>
       </c>
       <c r="F143" s="105" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G143" s="105" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H143" s="106" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I143" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J143" s="70"/>
       <c r="K143" s="41" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10275,10 +10284,10 @@
         <v>314</v>
       </c>
       <c r="F144" s="105" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G144" s="105" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H144" s="106">
         <v>99</v>
@@ -10288,7 +10297,7 @@
       </c>
       <c r="J144" s="70"/>
       <c r="K144" s="41" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10307,20 +10316,20 @@
         <v>314</v>
       </c>
       <c r="F145" s="105" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G145" s="105" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H145" s="106" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I145" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J145" s="70"/>
       <c r="K145" s="41" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10351,7 +10360,7 @@
       </c>
       <c r="J146" s="70"/>
       <c r="K146" s="41" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -10400,7 +10409,7 @@
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F77" sqref="F76:F77"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10617,13 +10626,13 @@
         <v>314</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G7" s="85" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I7" s="108" t="s">
         <v>19</v>
@@ -10632,7 +10641,7 @@
         <v>247</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10685,10 +10694,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H9" s="124" t="s">
         <v>234</v>
@@ -10698,7 +10707,7 @@
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="41" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10717,7 +10726,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G10" s="61" t="s">
         <v>31</v>
@@ -10730,7 +10739,7 @@
       </c>
       <c r="J10" s="61"/>
       <c r="K10" s="41" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -10749,7 +10758,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G11" s="61" t="s">
         <v>65</v>
@@ -10762,7 +10771,7 @@
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="41" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -10781,7 +10790,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>87</v>
@@ -10794,7 +10803,7 @@
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="41" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -10851,14 +10860,14 @@
         <v>334</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I14" s="68" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="68"/>
       <c r="K14" s="41" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10909,10 +10918,10 @@
         <v>241</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H16" s="69" t="s">
         <v>238</v>
@@ -10922,7 +10931,7 @@
       </c>
       <c r="J16" s="53"/>
       <c r="K16" s="68" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10941,10 +10950,10 @@
         <v>319</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H17" s="69" t="s">
         <v>238</v>
@@ -10954,7 +10963,7 @@
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="68" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -10985,7 +10994,7 @@
       </c>
       <c r="J18" s="70"/>
       <c r="K18" s="41" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -11096,7 +11105,7 @@
       </c>
       <c r="J22" s="78"/>
       <c r="K22" s="41" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -11130,7 +11139,7 @@
         <v>248</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -11183,13 +11192,13 @@
         <v>314</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G25" s="85" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H25" s="86" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I25" s="108" t="s">
         <v>19</v>
@@ -11198,7 +11207,7 @@
         <v>247</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -11217,13 +11226,13 @@
         <v>314</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>19</v>
@@ -11232,7 +11241,7 @@
         <v>247</v>
       </c>
       <c r="K26" s="68" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -11257,14 +11266,14 @@
         <v>334</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I27" s="68" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="68"/>
       <c r="K27" s="41" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -11347,10 +11356,10 @@
         <v>319</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G30" s="127" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H30" s="69" t="s">
         <v>238</v>
@@ -11360,7 +11369,7 @@
       </c>
       <c r="J30" s="53"/>
       <c r="K30" s="68" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -11411,20 +11420,20 @@
         <v>319</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G32" s="127" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I32" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="53"/>
       <c r="K32" s="41" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -11443,20 +11452,20 @@
         <v>319</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G33" s="127" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I33" s="53" t="s">
         <v>47</v>
       </c>
       <c r="J33" s="53"/>
       <c r="K33" s="41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -11475,20 +11484,20 @@
         <v>319</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G34" s="127" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I34" s="53" t="s">
         <v>47</v>
       </c>
       <c r="J34" s="53"/>
       <c r="K34" s="41" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -11507,20 +11516,20 @@
         <v>314</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G35" s="127" t="s">
         <v>127</v>
       </c>
       <c r="H35" s="129" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I35" s="127" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J35" s="127"/>
       <c r="K35" s="41" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -11545,7 +11554,7 @@
         <v>151</v>
       </c>
       <c r="H36" s="70" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I36" s="68" t="s">
         <v>11</v>
@@ -11571,20 +11580,20 @@
         <v>314</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G37" s="127" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H37" s="70" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I37" s="68" t="s">
         <v>11</v>
       </c>
       <c r="J37" s="68"/>
       <c r="K37" s="41" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -11603,10 +11612,10 @@
         <v>314</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G38" s="127" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H38" s="69" t="s">
         <v>238</v>
@@ -11616,7 +11625,7 @@
       </c>
       <c r="J38" s="53"/>
       <c r="K38" s="68" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -11635,7 +11644,7 @@
         <v>314</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G39" s="127" t="s">
         <v>370</v>
@@ -11679,7 +11688,7 @@
       </c>
       <c r="J40" s="70"/>
       <c r="K40" s="41" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -11841,10 +11850,10 @@
         <v>314</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G46" s="61" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H46" s="124" t="s">
         <v>234</v>
@@ -11854,7 +11863,7 @@
       </c>
       <c r="J46" s="61"/>
       <c r="K46" s="41" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -11873,20 +11882,20 @@
         <v>319</v>
       </c>
       <c r="F47" s="75" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G47" s="75" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H47" s="76" t="b">
         <v>1</v>
       </c>
       <c r="I47" s="75" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J47" s="75"/>
       <c r="K47" s="77" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -12004,7 +12013,7 @@
         <v>301</v>
       </c>
       <c r="G51" s="127" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H51" s="69" t="s">
         <v>304</v>
@@ -12014,7 +12023,7 @@
       </c>
       <c r="J51" s="53"/>
       <c r="K51" s="41" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -12045,7 +12054,7 @@
       </c>
       <c r="J52" s="70"/>
       <c r="K52" s="41" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -12250,10 +12259,10 @@
         <v>241</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H3" s="79">
         <v>5486874</v>
@@ -12262,7 +12271,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -12284,7 +12293,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="95" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H4" s="96" t="s">
         <v>173</v>
@@ -12312,19 +12321,19 @@
         <v>241</v>
       </c>
       <c r="F5" s="134" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G5" s="134" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H5" s="135" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I5" s="83" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12343,7 +12352,7 @@
         <v>241</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G6" s="71" t="s">
         <v>24</v>
@@ -12386,7 +12395,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -12467,19 +12476,19 @@
         <v>314</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I10" s="71" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -12498,19 +12507,19 @@
         <v>314</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I11" s="80" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -12535,13 +12544,13 @@
         <v>334</v>
       </c>
       <c r="H12" s="106" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I12" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -12557,22 +12566,22 @@
         <v>334</v>
       </c>
       <c r="E13" s="59" t="s">
+        <v>649</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>650</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>651</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>652</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>653</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>654</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>655</v>
       </c>
       <c r="I13" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12591,10 +12600,10 @@
         <v>241</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H14" s="69" t="s">
         <v>238</v>
@@ -12603,7 +12612,7 @@
         <v>35</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12622,10 +12631,10 @@
         <v>314</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H15" s="69">
         <v>5</v>
@@ -12634,7 +12643,7 @@
         <v>47</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12653,10 +12662,10 @@
         <v>314</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H16" s="69" t="s">
         <v>238</v>
@@ -12665,7 +12674,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -12684,10 +12693,10 @@
         <v>314</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H17" s="69" t="s">
         <v>238</v>
@@ -12696,7 +12705,7 @@
         <v>35</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -12715,10 +12724,10 @@
         <v>319</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H18" s="69" t="s">
         <v>238</v>
@@ -12727,7 +12736,7 @@
         <v>35</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -12746,10 +12755,10 @@
         <v>314</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H19" s="69" t="s">
         <v>238</v>
@@ -12758,7 +12767,7 @@
         <v>35</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -12777,10 +12786,10 @@
         <v>314</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G20" s="137" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H20" s="69" t="s">
         <v>238</v>
@@ -12789,7 +12798,7 @@
         <v>35</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -12808,10 +12817,10 @@
         <v>314</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G21" s="68" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H21" s="69" t="s">
         <v>238</v>
@@ -12820,7 +12829,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -12839,10 +12848,10 @@
         <v>241</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H22" s="69" t="s">
         <v>238</v>
@@ -12851,7 +12860,7 @@
         <v>35</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -12870,10 +12879,10 @@
         <v>314</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H23" s="69" t="s">
         <v>238</v>
@@ -12882,7 +12891,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -12901,10 +12910,10 @@
         <v>319</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H24" s="69">
         <v>5</v>
@@ -12913,7 +12922,7 @@
         <v>356</v>
       </c>
       <c r="J24" s="104" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -12932,10 +12941,10 @@
         <v>314</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H25" s="69">
         <v>75.599999999999994</v>
@@ -12944,7 +12953,7 @@
         <v>47</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -12963,10 +12972,10 @@
         <v>314</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H26" s="69" t="s">
         <v>55</v>
@@ -12994,19 +13003,19 @@
         <v>314</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I27" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -13025,10 +13034,10 @@
         <v>314</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H28" s="69">
         <v>89.7</v>
@@ -13037,7 +13046,7 @@
         <v>47</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -13056,10 +13065,10 @@
         <v>314</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H29" s="69" t="s">
         <v>55</v>
@@ -13087,10 +13096,10 @@
         <v>319</v>
       </c>
       <c r="F30" s="127" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G30" s="127" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H30" s="106">
         <v>100</v>
@@ -13099,7 +13108,7 @@
         <v>47</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13118,13 +13127,13 @@
         <v>319</v>
       </c>
       <c r="F31" s="127" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G31" s="127" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H31" s="106" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I31" s="84" t="s">
         <v>11</v>
@@ -13149,10 +13158,10 @@
         <v>314</v>
       </c>
       <c r="F32" s="105" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G32" s="105" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H32" s="106">
         <v>1000</v>
@@ -13161,7 +13170,7 @@
         <v>11</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13180,10 +13189,10 @@
         <v>314</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G33" s="105" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H33" s="106">
         <v>345</v>
@@ -13192,7 +13201,7 @@
         <v>11</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13211,10 +13220,10 @@
         <v>314</v>
       </c>
       <c r="F34" s="105" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G34" s="105" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H34" s="106">
         <v>2</v>
@@ -13223,7 +13232,7 @@
         <v>11</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13242,10 +13251,10 @@
         <v>314</v>
       </c>
       <c r="F35" s="105" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G35" s="105" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H35" s="106">
         <v>33</v>
@@ -13254,7 +13263,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13270,13 +13279,13 @@
         <v>44</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H36" s="106">
         <v>1</v>
@@ -13285,7 +13294,7 @@
         <v>47</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -13301,13 +13310,13 @@
         <v>44</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F37" s="105" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H37" s="106">
         <v>2</v>
@@ -13316,7 +13325,7 @@
         <v>47</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -13332,13 +13341,13 @@
         <v>44</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F38" s="105" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H38" s="106">
         <v>3</v>
@@ -13347,7 +13356,7 @@
         <v>47</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -13366,19 +13375,19 @@
         <v>314</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I39" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -13397,19 +13406,19 @@
         <v>314</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I40" s="55" t="s">
         <v>11</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -13428,19 +13437,19 @@
         <v>314</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I41" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J41" s="41" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -13459,19 +13468,19 @@
         <v>314</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I42" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -13490,19 +13499,19 @@
         <v>314</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I43" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J43" s="41" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -13521,17 +13530,17 @@
         <v>314</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H44" s="54"/>
       <c r="I44" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J44" s="41" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -13550,17 +13559,17 @@
         <v>314</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G45" s="53" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H45" s="54"/>
       <c r="I45" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J45" s="41" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -13579,19 +13588,19 @@
         <v>314</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G46" s="53" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I46" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J46" s="41" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -13610,19 +13619,19 @@
         <v>314</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I47" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J47" s="41" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -13641,19 +13650,19 @@
         <v>314</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G48" s="53" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H48" s="54" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I48" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -13672,19 +13681,19 @@
         <v>314</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I49" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J49" s="41" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -13703,10 +13712,10 @@
         <v>314</v>
       </c>
       <c r="F50" s="105" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G50" s="105" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H50" s="106">
         <v>8422554111</v>
@@ -13715,7 +13724,7 @@
         <v>11</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13734,10 +13743,10 @@
         <v>314</v>
       </c>
       <c r="F51" s="105" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G51" s="105" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H51" s="106">
         <v>44485777</v>
@@ -13746,7 +13755,7 @@
         <v>11</v>
       </c>
       <c r="J51" s="41" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -13765,10 +13774,10 @@
         <v>314</v>
       </c>
       <c r="F52" s="105" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G52" s="105" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H52" s="138" t="s">
         <v>389</v>
@@ -13777,7 +13786,7 @@
         <v>11</v>
       </c>
       <c r="J52" s="41" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -13796,10 +13805,10 @@
         <v>314</v>
       </c>
       <c r="F53" s="105" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G53" s="105" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H53" s="138" t="s">
         <v>389</v>
@@ -13808,7 +13817,7 @@
         <v>11</v>
       </c>
       <c r="J53" s="41" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13827,10 +13836,10 @@
         <v>314</v>
       </c>
       <c r="F54" s="103" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G54" s="105" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H54" s="138" t="s">
         <v>389</v>
@@ -13839,7 +13848,7 @@
         <v>11</v>
       </c>
       <c r="J54" s="41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -13858,19 +13867,19 @@
         <v>314</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G55" s="68" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I55" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J55" s="41" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -13931,7 +13940,7 @@
         <v>ShipmentCustomAttributes</v>
       </c>
       <c r="J57" s="41" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -13953,7 +13962,7 @@
         <v>ShipmentLine.shipment.shipmentIdentifier</v>
       </c>
       <c r="C59" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>8</v>
@@ -13962,10 +13971,10 @@
         <v>241</v>
       </c>
       <c r="F59" s="108" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G59" s="108" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H59" s="109">
         <v>5486874</v>
@@ -13974,7 +13983,7 @@
         <v>19</v>
       </c>
       <c r="J59" s="141" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="142" customFormat="1" x14ac:dyDescent="0.25">
@@ -13984,7 +13993,7 @@
         <v>ShipmentLine.shipmentLineNumber</v>
       </c>
       <c r="C60" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>8</v>
@@ -13993,10 +14002,10 @@
         <v>241</v>
       </c>
       <c r="F60" s="78" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G60" s="78" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H60" s="79" t="s">
         <v>75</v>
@@ -14005,7 +14014,7 @@
         <v>11</v>
       </c>
       <c r="J60" s="34" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="142" customFormat="1" x14ac:dyDescent="0.25">
@@ -14015,7 +14024,7 @@
         <v>ShipmentLine.shipment.shipmentType</v>
       </c>
       <c r="C61" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D61" s="36" t="s">
         <v>8</v>
@@ -14024,10 +14033,10 @@
         <v>241</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H61" s="109" t="s">
         <v>173</v>
@@ -14046,7 +14055,7 @@
         <v>ShipmentLine.order.orderIdentifier</v>
       </c>
       <c r="C62" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D62" s="49" t="s">
         <v>15</v>
@@ -14058,7 +14067,7 @@
         <v>58</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H62" s="72">
         <v>100013204</v>
@@ -14067,7 +14076,7 @@
         <v>19</v>
       </c>
       <c r="J62" s="41" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -14077,7 +14086,7 @@
         <v>ShipmentLine.orderLine.orderLineNumber</v>
       </c>
       <c r="C63" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D63" s="49" t="s">
         <v>15</v>
@@ -14086,7 +14095,7 @@
         <v>241</v>
       </c>
       <c r="F63" s="71" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G63" s="71" t="s">
         <v>60</v>
@@ -14098,7 +14107,7 @@
         <v>19</v>
       </c>
       <c r="J63" s="41" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -14108,28 +14117,28 @@
         <v>ShipmentLine.statusByDate</v>
       </c>
       <c r="C64" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D64" s="52" t="s">
         <v>334</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F64" s="68" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G64" s="68" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H64" s="69" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="I64" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -14139,7 +14148,7 @@
         <v>ShipmentLine.dateCreated</v>
       </c>
       <c r="C65" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D65" s="100" t="s">
         <v>32</v>
@@ -14148,10 +14157,10 @@
         <v>241</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G65" s="68" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H65" s="69" t="s">
         <v>238</v>
@@ -14160,7 +14169,7 @@
         <v>35</v>
       </c>
       <c r="J65" s="34" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -14170,7 +14179,7 @@
         <v>ShipmentLine.lastModifiedDate</v>
       </c>
       <c r="C66" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D66" s="100" t="s">
         <v>32</v>
@@ -14179,10 +14188,10 @@
         <v>314</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G66" s="68" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H66" s="69" t="s">
         <v>238</v>
@@ -14191,7 +14200,7 @@
         <v>35</v>
       </c>
       <c r="J66" s="34" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -14201,7 +14210,7 @@
         <v>ShipmentLine.quantity</v>
       </c>
       <c r="C67" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D67" s="56" t="s">
         <v>44</v>
@@ -14222,7 +14231,7 @@
         <v>47</v>
       </c>
       <c r="J67" s="41" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -14232,7 +14241,7 @@
         <v>ShipmentLine.quantityUnits</v>
       </c>
       <c r="C68" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D68" s="56" t="s">
         <v>44</v>
@@ -14263,7 +14272,7 @@
         <v>ShipmentLine.productValue</v>
       </c>
       <c r="C69" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D69" s="56" t="s">
         <v>44</v>
@@ -14285,7 +14294,7 @@
         <v>47</v>
       </c>
       <c r="J69" s="41" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -14295,7 +14304,7 @@
         <v>ShipmentLine.value</v>
       </c>
       <c r="C70" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D70" s="56" t="s">
         <v>44</v>
@@ -14316,7 +14325,7 @@
         <v>47</v>
       </c>
       <c r="J70" s="41" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -14326,7 +14335,7 @@
         <v>ShipmentLine.valueCurrency</v>
       </c>
       <c r="C71" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D71" s="56" t="s">
         <v>44</v>
@@ -14357,7 +14366,7 @@
         <v>ShipmentLine.description</v>
       </c>
       <c r="C72" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D72" s="63" t="s">
         <v>56</v>
@@ -14378,7 +14387,7 @@
         <v>11</v>
       </c>
       <c r="J72" s="41" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -14388,7 +14397,7 @@
         <v>ShipmentLine.customAttributes</v>
       </c>
       <c r="C73" s="140" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D73" s="63" t="s">
         <v>56</v>
@@ -14408,7 +14417,7 @@
         <v>ShipmentLineCustomAttributes</v>
       </c>
       <c r="J73" s="41" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -14430,7 +14439,7 @@
         <v>SupplyPlan.product.partNumber</v>
       </c>
       <c r="C75" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D75" s="36" t="s">
         <v>8</v>
@@ -14451,7 +14460,7 @@
         <v>19</v>
       </c>
       <c r="J75" s="41" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14461,7 +14470,7 @@
         <v>SupplyPlan.location.locationIdentifier</v>
       </c>
       <c r="C76" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>8</v>
@@ -14482,7 +14491,7 @@
         <v>19</v>
       </c>
       <c r="J76" s="41" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="148" customFormat="1" x14ac:dyDescent="0.25">
@@ -14492,7 +14501,7 @@
         <v>SupplyPlan.startDate</v>
       </c>
       <c r="C77" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>8</v>
@@ -14501,19 +14510,19 @@
         <v>241</v>
       </c>
       <c r="F77" s="146" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G77" s="146" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H77" s="147" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I77" s="146" t="s">
         <v>35</v>
       </c>
       <c r="J77" s="66" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -14523,7 +14532,7 @@
         <v>SupplyPlan.duration</v>
       </c>
       <c r="C78" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D78" s="36" t="s">
         <v>8</v>
@@ -14532,10 +14541,10 @@
         <v>241</v>
       </c>
       <c r="F78" s="146" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G78" s="146" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H78" s="79">
         <v>1</v>
@@ -14544,7 +14553,7 @@
         <v>47</v>
       </c>
       <c r="J78" s="58" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14554,7 +14563,7 @@
         <v>SupplyPlan.planParentType</v>
       </c>
       <c r="C79" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D79" s="36" t="s">
         <v>8</v>
@@ -14563,19 +14572,19 @@
         <v>241</v>
       </c>
       <c r="F79" s="78" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G79" s="79" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H79" s="79" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I79" s="38" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="149" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14585,7 +14594,7 @@
         <v>SupplyPlan.planType</v>
       </c>
       <c r="C80" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D80" s="44" t="s">
         <v>14</v>
@@ -14597,7 +14606,7 @@
         <v>82</v>
       </c>
       <c r="G80" s="150" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H80" s="82" t="s">
         <v>103</v>
@@ -14606,7 +14615,7 @@
         <v>11</v>
       </c>
       <c r="J80" s="48" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14616,7 +14625,7 @@
         <v>SupplyPlan.quantity</v>
       </c>
       <c r="C81" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D81" s="56" t="s">
         <v>44</v>
@@ -14637,7 +14646,7 @@
         <v>47</v>
       </c>
       <c r="J81" s="41" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14647,7 +14656,7 @@
         <v>SupplyPlan.quantityUnits</v>
       </c>
       <c r="C82" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D82" s="56" t="s">
         <v>44</v>
@@ -14678,7 +14687,7 @@
         <v>SupplyPlan.planningCycle</v>
       </c>
       <c r="C83" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D83" s="63" t="s">
         <v>56</v>
@@ -14687,19 +14696,19 @@
         <v>319</v>
       </c>
       <c r="F83" s="84" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G83" s="137" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H83" s="69" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I83" s="84" t="s">
         <v>11</v>
       </c>
       <c r="J83" s="41" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -14709,7 +14718,7 @@
         <v>SupplyPlan.source</v>
       </c>
       <c r="C84" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D84" s="63" t="s">
         <v>56</v>
@@ -14718,19 +14727,19 @@
         <v>319</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G84" s="137" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H84" s="69" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I84" s="84" t="s">
         <v>11</v>
       </c>
       <c r="J84" s="41" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14740,7 +14749,7 @@
         <v>SupplyPlan.class</v>
       </c>
       <c r="C85" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D85" s="63" t="s">
         <v>56</v>
@@ -14749,19 +14758,19 @@
         <v>314</v>
       </c>
       <c r="F85" s="68" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G85" s="69" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H85" s="151" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I85" s="68" t="s">
         <v>11</v>
       </c>
       <c r="J85" s="149" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="148" customFormat="1" x14ac:dyDescent="0.25">
@@ -14771,7 +14780,7 @@
         <v>SupplyPlan.validFrom</v>
       </c>
       <c r="C86" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D86" s="63" t="s">
         <v>56</v>
@@ -14792,7 +14801,7 @@
         <v>35</v>
       </c>
       <c r="J86" s="66" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14802,7 +14811,7 @@
         <v>SupplyPlan.validTo</v>
       </c>
       <c r="C87" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D87" s="63" t="s">
         <v>56</v>
@@ -14811,10 +14820,10 @@
         <v>314</v>
       </c>
       <c r="F87" s="84" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G87" s="84" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H87" s="69" t="s">
         <v>238</v>
@@ -14823,7 +14832,7 @@
         <v>35</v>
       </c>
       <c r="J87" s="66" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14833,7 +14842,7 @@
         <v>SupplyPlan.reference</v>
       </c>
       <c r="C88" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D88" s="63" t="s">
         <v>56</v>
@@ -14848,13 +14857,13 @@
         <v>28</v>
       </c>
       <c r="H88" s="69" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I88" s="84" t="s">
         <v>11</v>
       </c>
       <c r="J88" s="41" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -14864,7 +14873,7 @@
         <v>SupplyPlan.sourceLink</v>
       </c>
       <c r="C89" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D89" s="63" t="s">
         <v>56</v>
@@ -14895,7 +14904,7 @@
         <v>SupplyPlan.customAttributes</v>
       </c>
       <c r="C90" s="144" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D90" s="63" t="s">
         <v>56</v>
@@ -14915,7 +14924,7 @@
         <v>SupplyPlanCustomAttributes</v>
       </c>
       <c r="J90" s="41" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -14937,7 +14946,7 @@
         <v>DemandPlan.product.partNumber</v>
       </c>
       <c r="C92" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D92" s="36" t="s">
         <v>8</v>
@@ -14958,7 +14967,7 @@
         <v>19</v>
       </c>
       <c r="J92" s="41" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -14968,7 +14977,7 @@
         <v>DemandPlan.location.locationIdentifier</v>
       </c>
       <c r="C93" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D93" s="36" t="s">
         <v>8</v>
@@ -14989,7 +14998,7 @@
         <v>19</v>
       </c>
       <c r="J93" s="41" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="148" customFormat="1" x14ac:dyDescent="0.25">
@@ -14999,7 +15008,7 @@
         <v>DemandPlan.startDate</v>
       </c>
       <c r="C94" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D94" s="36" t="s">
         <v>8</v>
@@ -15008,19 +15017,19 @@
         <v>241</v>
       </c>
       <c r="F94" s="146" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G94" s="146" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H94" s="147" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I94" s="146" t="s">
         <v>35</v>
       </c>
       <c r="J94" s="66" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -15030,7 +15039,7 @@
         <v>DemandPlan.duration</v>
       </c>
       <c r="C95" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D95" s="36" t="s">
         <v>8</v>
@@ -15039,10 +15048,10 @@
         <v>241</v>
       </c>
       <c r="F95" s="146" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G95" s="146" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H95" s="79">
         <v>1</v>
@@ -15051,7 +15060,7 @@
         <v>47</v>
       </c>
       <c r="J95" s="58" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -15061,7 +15070,7 @@
         <v>DemandPlan.planParentType</v>
       </c>
       <c r="C96" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D96" s="36" t="s">
         <v>8</v>
@@ -15070,19 +15079,19 @@
         <v>241</v>
       </c>
       <c r="F96" s="78" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G96" s="79" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H96" s="79" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="I96" s="38" t="s">
         <v>11</v>
       </c>
       <c r="J96" s="149" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -15092,7 +15101,7 @@
         <v>DemandPlan.planType</v>
       </c>
       <c r="C97" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D97" s="44" t="s">
         <v>14</v>
@@ -15104,7 +15113,7 @@
         <v>82</v>
       </c>
       <c r="G97" s="150" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H97" s="82" t="s">
         <v>103</v>
@@ -15113,7 +15122,7 @@
         <v>11</v>
       </c>
       <c r="J97" s="48" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -15123,7 +15132,7 @@
         <v>DemandPlan.quantity</v>
       </c>
       <c r="C98" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D98" s="56" t="s">
         <v>44</v>
@@ -15144,7 +15153,7 @@
         <v>47</v>
       </c>
       <c r="J98" s="41" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="148" customFormat="1" x14ac:dyDescent="0.25">
@@ -15154,7 +15163,7 @@
         <v>DemandPlan.quantityUnits</v>
       </c>
       <c r="C99" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D99" s="56" t="s">
         <v>44</v>
@@ -15185,19 +15194,19 @@
         <v>DemandPlan.confidence</v>
       </c>
       <c r="C100" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D100" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E100" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G100" s="84" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H100" s="69">
         <v>0.99</v>
@@ -15206,7 +15215,7 @@
         <v>47</v>
       </c>
       <c r="J100" s="41" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -15216,7 +15225,7 @@
         <v>DemandPlan.planningCycle</v>
       </c>
       <c r="C101" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D101" s="63" t="s">
         <v>56</v>
@@ -15225,19 +15234,19 @@
         <v>319</v>
       </c>
       <c r="F101" s="84" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G101" s="137" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H101" s="69" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I101" s="84" t="s">
         <v>11</v>
       </c>
       <c r="J101" s="41" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -15247,7 +15256,7 @@
         <v>DemandPlan.source</v>
       </c>
       <c r="C102" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D102" s="63" t="s">
         <v>56</v>
@@ -15256,19 +15265,19 @@
         <v>319</v>
       </c>
       <c r="F102" s="84" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G102" s="137" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H102" s="69" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I102" s="84" t="s">
         <v>11</v>
       </c>
       <c r="J102" s="41" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -15278,7 +15287,7 @@
         <v>DemandPlan.class</v>
       </c>
       <c r="C103" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D103" s="63" t="s">
         <v>56</v>
@@ -15287,19 +15296,19 @@
         <v>314</v>
       </c>
       <c r="F103" s="68" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G103" s="69" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H103" s="151" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I103" s="68" t="s">
         <v>11</v>
       </c>
       <c r="J103" s="149" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -15309,7 +15318,7 @@
         <v>DemandPlan.reference</v>
       </c>
       <c r="C104" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D104" s="63" t="s">
         <v>56</v>
@@ -15328,7 +15337,7 @@
         <v>11</v>
       </c>
       <c r="J104" s="41" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="148" customFormat="1" x14ac:dyDescent="0.25">
@@ -15338,7 +15347,7 @@
         <v>DemandPlan.validFrom</v>
       </c>
       <c r="C105" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D105" s="63" t="s">
         <v>56</v>
@@ -15359,7 +15368,7 @@
         <v>35</v>
       </c>
       <c r="J105" s="66" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
@@ -15369,7 +15378,7 @@
         <v>DemandPlan.validTo</v>
       </c>
       <c r="C106" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D106" s="63" t="s">
         <v>56</v>
@@ -15378,10 +15387,10 @@
         <v>314</v>
       </c>
       <c r="F106" s="84" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G106" s="84" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H106" s="69" t="s">
         <v>238</v>
@@ -15390,7 +15399,7 @@
         <v>35</v>
       </c>
       <c r="J106" s="66" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -15400,7 +15409,7 @@
         <v>DemandPlan.sourceLink</v>
       </c>
       <c r="C107" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D107" s="63" t="s">
         <v>56</v>
@@ -15431,7 +15440,7 @@
         <v>DemandPlan.customAttributes</v>
       </c>
       <c r="C108" s="144" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D108" s="63" t="s">
         <v>56</v>
@@ -15451,7 +15460,7 @@
         <v>DemandPlanCustomAttributes</v>
       </c>
       <c r="J108" s="41" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -15473,7 +15482,7 @@
         <v>Asset.assetIdentifier</v>
       </c>
       <c r="C110" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D110" s="36" t="s">
         <v>8</v>
@@ -15482,19 +15491,19 @@
         <v>241</v>
       </c>
       <c r="F110" s="78" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G110" s="78" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H110" s="79" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I110" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J110" s="149" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
@@ -15504,7 +15513,7 @@
         <v>Asset.assetType</v>
       </c>
       <c r="C111" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D111" s="36" t="s">
         <v>8</v>
@@ -15513,19 +15522,19 @@
         <v>241</v>
       </c>
       <c r="F111" s="95" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G111" s="95" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H111" s="96" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I111" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J111" s="41" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
@@ -15535,7 +15544,7 @@
         <v>Asset.product.partNumber</v>
       </c>
       <c r="C112" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D112" s="49" t="s">
         <v>15</v>
@@ -15547,16 +15556,16 @@
         <v>62</v>
       </c>
       <c r="G112" s="71" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H112" s="72" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I112" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J112" s="41" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15566,7 +15575,7 @@
         <v>Asset.location.locationIdentifier</v>
       </c>
       <c r="C113" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D113" s="49" t="s">
         <v>15</v>
@@ -15581,13 +15590,13 @@
         <v>81</v>
       </c>
       <c r="H113" s="72" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="I113" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J113" s="41" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15597,28 +15606,28 @@
         <v>Asset.parentAssetIdentifier</v>
       </c>
       <c r="C114" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D114" s="153" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>319</v>
       </c>
       <c r="F114" s="81" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G114" s="82" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H114" s="82" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I114" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J114" s="41" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
@@ -15628,7 +15637,7 @@
         <v>Asset.parentAssetType</v>
       </c>
       <c r="C115" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D115" s="44" t="s">
         <v>14</v>
@@ -15637,19 +15646,19 @@
         <v>319</v>
       </c>
       <c r="F115" s="81" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G115" s="82" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H115" s="82" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I115" s="81" t="s">
         <v>11</v>
       </c>
       <c r="J115" s="41" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15659,7 +15668,7 @@
         <v>Asset.status</v>
       </c>
       <c r="C116" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D116" s="52" t="s">
         <v>334</v>
@@ -15680,7 +15689,7 @@
         <v>11</v>
       </c>
       <c r="J116" s="41" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15690,7 +15699,7 @@
         <v>Asset.metricsTimestamp</v>
       </c>
       <c r="C117" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D117" s="100" t="s">
         <v>32</v>
@@ -15699,10 +15708,10 @@
         <v>319</v>
       </c>
       <c r="F117" s="75" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G117" s="75" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H117" s="69" t="s">
         <v>238</v>
@@ -15711,7 +15720,7 @@
         <v>35</v>
       </c>
       <c r="J117" s="77" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15721,7 +15730,7 @@
         <v>Asset.name</v>
       </c>
       <c r="C118" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D118" s="63" t="s">
         <v>56</v>
@@ -15736,13 +15745,13 @@
         <v>86</v>
       </c>
       <c r="H118" s="82" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I118" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J118" s="48" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -15752,7 +15761,7 @@
         <v>Asset.description</v>
       </c>
       <c r="C119" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D119" s="63" t="s">
         <v>56</v>
@@ -15767,13 +15776,13 @@
         <v>6</v>
       </c>
       <c r="H119" s="54" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="I119" s="53" t="s">
         <v>11</v>
       </c>
       <c r="J119" s="104" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
@@ -15783,7 +15792,7 @@
         <v>Asset.currentLocationCoordinates</v>
       </c>
       <c r="C120" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D120" s="63" t="s">
         <v>56</v>
@@ -15792,19 +15801,19 @@
         <v>314</v>
       </c>
       <c r="F120" s="68" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G120" s="68" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H120" s="69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I120" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J120" s="34" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15814,7 +15823,7 @@
         <v>Asset.priorLocationCoordinates</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D121" s="63" t="s">
         <v>56</v>
@@ -15823,19 +15832,19 @@
         <v>314</v>
       </c>
       <c r="F121" s="68" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G121" s="68" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H121" s="69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I121" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J121" s="41" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15845,7 +15854,7 @@
         <v>Asset.metric1</v>
       </c>
       <c r="C122" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D122" s="56" t="s">
         <v>44</v>
@@ -15854,10 +15863,10 @@
         <v>319</v>
       </c>
       <c r="F122" s="128" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G122" s="43" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H122" s="149">
         <v>100</v>
@@ -15866,7 +15875,7 @@
         <v>47</v>
       </c>
       <c r="J122" s="149" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15876,7 +15885,7 @@
         <v>Asset.metric1Units</v>
       </c>
       <c r="C123" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D123" s="56" t="s">
         <v>44</v>
@@ -15885,13 +15894,13 @@
         <v>319</v>
       </c>
       <c r="F123" s="57" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G123" s="43" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H123" s="69" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I123" s="53" t="s">
         <v>11</v>
@@ -15907,7 +15916,7 @@
         <v>Asset.metric2</v>
       </c>
       <c r="C124" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D124" s="56" t="s">
         <v>44</v>
@@ -15916,10 +15925,10 @@
         <v>319</v>
       </c>
       <c r="F124" s="57" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G124" s="43" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H124" s="149">
         <v>23.2</v>
@@ -15928,7 +15937,7 @@
         <v>47</v>
       </c>
       <c r="J124" s="149" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -15938,7 +15947,7 @@
         <v>Asset.metric2Units</v>
       </c>
       <c r="C125" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D125" s="56" t="s">
         <v>44</v>
@@ -15947,13 +15956,13 @@
         <v>319</v>
       </c>
       <c r="F125" s="57" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G125" s="43" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H125" s="149" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I125" s="53" t="s">
         <v>11</v>
@@ -15969,7 +15978,7 @@
         <v>Asset.metric3</v>
       </c>
       <c r="C126" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D126" s="56" t="s">
         <v>44</v>
@@ -15978,10 +15987,10 @@
         <v>319</v>
       </c>
       <c r="F126" s="57" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G126" s="43" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H126" s="149">
         <v>23.2</v>
@@ -15990,7 +15999,7 @@
         <v>47</v>
       </c>
       <c r="J126" s="149" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16000,7 +16009,7 @@
         <v>Asset.metric3Units</v>
       </c>
       <c r="C127" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D127" s="56" t="s">
         <v>44</v>
@@ -16009,13 +16018,13 @@
         <v>319</v>
       </c>
       <c r="F127" s="57" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H127" s="149" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I127" s="53" t="s">
         <v>11</v>
@@ -16031,19 +16040,19 @@
         <v>Asset.metric1UpperLimit</v>
       </c>
       <c r="C128" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D128" s="154" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E128" s="37" t="s">
         <v>314</v>
       </c>
       <c r="F128" s="68" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G128" s="53" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="H128" s="54">
         <v>5</v>
@@ -16052,7 +16061,7 @@
         <v>47</v>
       </c>
       <c r="J128" s="41" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16062,19 +16071,19 @@
         <v>Asset.metric1LowerLimit</v>
       </c>
       <c r="C129" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D129" s="154" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E129" s="37" t="s">
         <v>314</v>
       </c>
       <c r="F129" s="68" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G129" s="53" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H129" s="54">
         <v>50</v>
@@ -16083,7 +16092,7 @@
         <v>47</v>
       </c>
       <c r="J129" s="41" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16093,19 +16102,19 @@
         <v>Asset.metric2UpperLimit</v>
       </c>
       <c r="C130" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D130" s="154" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E130" s="37" t="s">
         <v>314</v>
       </c>
       <c r="F130" s="68" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G130" s="53" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H130" s="54">
         <v>5</v>
@@ -16114,7 +16123,7 @@
         <v>47</v>
       </c>
       <c r="J130" s="41" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16124,19 +16133,19 @@
         <v>Asset.metric2LowerLimit</v>
       </c>
       <c r="C131" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D131" s="154" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E131" s="37" t="s">
         <v>314</v>
       </c>
       <c r="F131" s="68" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G131" s="53" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="H131" s="54">
         <v>50</v>
@@ -16145,7 +16154,7 @@
         <v>47</v>
       </c>
       <c r="J131" s="41" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16155,19 +16164,19 @@
         <v>Asset.metric3UpperLimit</v>
       </c>
       <c r="C132" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D132" s="154" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E132" s="37" t="s">
         <v>314</v>
       </c>
       <c r="F132" s="68" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G132" s="53" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H132" s="54">
         <v>5</v>
@@ -16176,7 +16185,7 @@
         <v>47</v>
       </c>
       <c r="J132" s="41" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16186,19 +16195,19 @@
         <v>Asset.metric3LowerLimit</v>
       </c>
       <c r="C133" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D133" s="154" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E133" s="37" t="s">
         <v>314</v>
       </c>
       <c r="F133" s="68" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G133" s="53" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H133" s="54">
         <v>50</v>
@@ -16207,7 +16216,7 @@
         <v>47</v>
       </c>
       <c r="J133" s="41" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16217,19 +16226,19 @@
         <v>Asset.metric1QuantityAboveUpperLimit</v>
       </c>
       <c r="C134" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D134" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E134" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F134" s="34" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G134" s="48" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="H134" s="149">
         <v>10</v>
@@ -16238,7 +16247,7 @@
         <v>47</v>
       </c>
       <c r="J134" s="41" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16248,19 +16257,19 @@
         <v>Asset.metric1QuantityBelowLowerLimit</v>
       </c>
       <c r="C135" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D135" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E135" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F135" s="34" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G135" s="48" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="H135" s="149">
         <v>10</v>
@@ -16269,7 +16278,7 @@
         <v>47</v>
       </c>
       <c r="J135" s="41" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16279,19 +16288,19 @@
         <v>Asset.metric2QuantityAboveUpperLimit</v>
       </c>
       <c r="C136" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D136" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F136" s="34" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G136" s="48" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="H136" s="149">
         <v>10</v>
@@ -16300,7 +16309,7 @@
         <v>47</v>
       </c>
       <c r="J136" s="41" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16310,19 +16319,19 @@
         <v>Asset.metric2QuantityBelowLowerLimit</v>
       </c>
       <c r="C137" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D137" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E137" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F137" s="34" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G137" s="48" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H137" s="149">
         <v>10</v>
@@ -16331,7 +16340,7 @@
         <v>47</v>
       </c>
       <c r="J137" s="41" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16341,19 +16350,19 @@
         <v>Asset.metric3QuantityAboveUpperLimit</v>
       </c>
       <c r="C138" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D138" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E138" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F138" s="34" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G138" s="48" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H138" s="149">
         <v>10</v>
@@ -16362,7 +16371,7 @@
         <v>47</v>
       </c>
       <c r="J138" s="41" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="139" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16372,19 +16381,19 @@
         <v>Asset.metric3QuantityBelowLowerLimit</v>
       </c>
       <c r="C139" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D139" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E139" s="59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F139" s="34" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G139" s="48" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H139" s="149">
         <v>10</v>
@@ -16393,7 +16402,7 @@
         <v>47</v>
       </c>
       <c r="J139" s="41" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="140" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16403,7 +16412,7 @@
         <v>Asset.elevation</v>
       </c>
       <c r="C140" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D140" s="63" t="s">
         <v>56</v>
@@ -16412,19 +16421,19 @@
         <v>319</v>
       </c>
       <c r="F140" s="68" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G140" s="53" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H140" s="54" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I140" s="65" t="s">
         <v>47</v>
       </c>
       <c r="J140" s="66" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16434,7 +16443,7 @@
         <v>Asset.elevationUnits</v>
       </c>
       <c r="C141" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D141" s="63" t="s">
         <v>56</v>
@@ -16443,13 +16452,13 @@
         <v>319</v>
       </c>
       <c r="F141" s="68" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G141" s="53" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H141" s="54" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="I141" s="65" t="s">
         <v>11</v>
@@ -16465,7 +16474,7 @@
         <v>Asset.installationDate</v>
       </c>
       <c r="C142" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D142" s="63" t="s">
         <v>56</v>
@@ -16474,10 +16483,10 @@
         <v>314</v>
       </c>
       <c r="F142" s="68" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G142" s="53" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H142" s="69" t="s">
         <v>238</v>
@@ -16486,7 +16495,7 @@
         <v>35</v>
       </c>
       <c r="J142" s="66" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
@@ -16496,7 +16505,7 @@
         <v>Asset.sourceLink</v>
       </c>
       <c r="C143" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D143" s="63" t="s">
         <v>56</v>
@@ -16508,7 +16517,7 @@
         <v>369</v>
       </c>
       <c r="G143" s="68" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H143" s="130" t="s">
         <v>371</v>
@@ -16527,7 +16536,7 @@
         <v>Asset.customAttributes</v>
       </c>
       <c r="C144" s="57" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D144" s="63" t="s">
         <v>56</v>
@@ -16547,7 +16556,7 @@
         <v>AssetCustomAttributes</v>
       </c>
       <c r="J144" s="41" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -16569,7 +16578,7 @@
         <v>ProductSupplier.product.partNumber</v>
       </c>
       <c r="C146" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D146" s="36" t="s">
         <v>8</v>
@@ -16584,13 +16593,13 @@
         <v>63</v>
       </c>
       <c r="H146" s="86" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I146" s="108" t="s">
         <v>19</v>
       </c>
       <c r="J146" s="41" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16600,7 +16609,7 @@
         <v>ProductSupplier.supplier.organizationIdentifier</v>
       </c>
       <c r="C147" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D147" s="36" t="s">
         <v>8</v>
@@ -16621,7 +16630,7 @@
         <v>19</v>
       </c>
       <c r="J147" s="41" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16631,7 +16640,7 @@
         <v>ProductSupplier.supplierProductNumber</v>
       </c>
       <c r="C148" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D148" s="36" t="s">
         <v>79</v>
@@ -16640,19 +16649,19 @@
         <v>241</v>
       </c>
       <c r="F148" s="78" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G148" s="78" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="H148" s="79" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="I148" s="78" t="s">
         <v>11</v>
       </c>
       <c r="J148" s="41" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16662,7 +16671,7 @@
         <v>ProductSupplier.authorizedShipToLocation.locationIdentifier</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D149" s="49" t="s">
         <v>15</v>
@@ -16671,10 +16680,10 @@
         <v>314</v>
       </c>
       <c r="F149" s="155" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G149" s="155" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H149" s="156" t="s">
         <v>27</v>
@@ -16683,7 +16692,7 @@
         <v>19</v>
       </c>
       <c r="J149" s="157" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16693,7 +16702,7 @@
         <v>ProductSupplier.status</v>
       </c>
       <c r="C150" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D150" s="52" t="s">
         <v>334</v>
@@ -16714,7 +16723,7 @@
         <v>11</v>
       </c>
       <c r="J150" s="41" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="151" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16724,7 +16733,7 @@
         <v>ProductSupplier.validFrom</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D151" s="100" t="s">
         <v>32</v>
@@ -16755,7 +16764,7 @@
         <v>ProductSupplier.validTo</v>
       </c>
       <c r="C152" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D152" s="100" t="s">
         <v>32</v>
@@ -16764,10 +16773,10 @@
         <v>314</v>
       </c>
       <c r="F152" s="68" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G152" s="68" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H152" s="69" t="s">
         <v>238</v>
@@ -16776,7 +16785,7 @@
         <v>35</v>
       </c>
       <c r="J152" s="68" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="153" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16786,7 +16795,7 @@
         <v>ProductSupplier.firstShipped</v>
       </c>
       <c r="C153" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D153" s="100" t="s">
         <v>32</v>
@@ -16795,10 +16804,10 @@
         <v>314</v>
       </c>
       <c r="F153" s="158" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G153" s="68" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H153" s="69" t="s">
         <v>238</v>
@@ -16807,7 +16816,7 @@
         <v>35</v>
       </c>
       <c r="J153" s="34" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16817,7 +16826,7 @@
         <v>ProductSupplier.lastShipped</v>
       </c>
       <c r="C154" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D154" s="100" t="s">
         <v>32</v>
@@ -16826,10 +16835,10 @@
         <v>314</v>
       </c>
       <c r="F154" s="158" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G154" s="68" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H154" s="69" t="s">
         <v>238</v>
@@ -16838,7 +16847,7 @@
         <v>35</v>
       </c>
       <c r="J154" s="34" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16848,7 +16857,7 @@
         <v>ProductSupplier.quantityOnOrder</v>
       </c>
       <c r="C155" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D155" s="56" t="s">
         <v>44</v>
@@ -16857,10 +16866,10 @@
         <v>314</v>
       </c>
       <c r="F155" s="159" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G155" s="53" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="H155" s="54">
         <v>1445</v>
@@ -16869,7 +16878,7 @@
         <v>47</v>
       </c>
       <c r="J155" s="149" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16879,7 +16888,7 @@
         <v>ProductSupplier.price</v>
       </c>
       <c r="C156" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D156" s="56" t="s">
         <v>44</v>
@@ -16888,10 +16897,10 @@
         <v>241</v>
       </c>
       <c r="F156" s="34" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G156" s="53" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H156" s="54">
         <v>79.989999999999995</v>
@@ -16900,7 +16909,7 @@
         <v>47</v>
       </c>
       <c r="J156" s="149" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -16910,7 +16919,7 @@
         <v>ProductSupplier.priceCurrency</v>
       </c>
       <c r="C157" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D157" s="56" t="s">
         <v>44</v>
@@ -16919,10 +16928,10 @@
         <v>241</v>
       </c>
       <c r="F157" s="34" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G157" s="53" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H157" s="54" t="s">
         <v>55</v>
@@ -16941,7 +16950,7 @@
         <v>ProductSupplier.supplierProductDescription</v>
       </c>
       <c r="C158" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D158" s="63" t="s">
         <v>56</v>
@@ -16950,19 +16959,19 @@
         <v>319</v>
       </c>
       <c r="F158" s="68" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G158" s="68" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H158" s="69" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I158" s="68" t="s">
         <v>11</v>
       </c>
       <c r="J158" s="68" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -16972,7 +16981,7 @@
         <v>ProductSupplier.supplierRevision</v>
       </c>
       <c r="C159" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D159" s="63" t="s">
         <v>56</v>
@@ -16981,19 +16990,19 @@
         <v>314</v>
       </c>
       <c r="F159" s="68" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G159" s="68" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H159" s="69" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="I159" s="68" t="s">
         <v>11</v>
       </c>
       <c r="J159" s="68" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="160" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -17003,7 +17012,7 @@
         <v>ProductSupplier.productSupplierType</v>
       </c>
       <c r="C160" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D160" s="44" t="s">
         <v>14</v>
@@ -17012,10 +17021,10 @@
         <v>314</v>
       </c>
       <c r="F160" s="75" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G160" s="75" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H160" s="39" t="s">
         <v>103</v>
@@ -17034,7 +17043,7 @@
         <v>ProductSupplier.tier</v>
       </c>
       <c r="C161" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D161" s="63" t="s">
         <v>56</v>
@@ -17043,10 +17052,10 @@
         <v>314</v>
       </c>
       <c r="F161" s="75" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G161" s="75" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H161" s="76">
         <v>1</v>
@@ -17055,7 +17064,7 @@
         <v>356</v>
       </c>
       <c r="J161" s="77" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="162" spans="1:10" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17065,7 +17074,7 @@
         <v>ProductSupplier.sourceLink</v>
       </c>
       <c r="C162" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D162" s="63" t="s">
         <v>56</v>
@@ -17077,7 +17086,7 @@
         <v>369</v>
       </c>
       <c r="G162" s="68" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H162" s="130" t="s">
         <v>371</v>
@@ -17096,7 +17105,7 @@
         <v>ProductSupplier.customAttributes</v>
       </c>
       <c r="C163" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D163" s="63" t="s">
         <v>56</v>
@@ -17116,7 +17125,7 @@
         <v>ProductSupplierCustomAttributes</v>
       </c>
       <c r="J163" s="41" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="164" spans="1:10" s="152" customFormat="1" x14ac:dyDescent="0.25">
@@ -17126,7 +17135,7 @@
         <v>ProductSupplier.additionalInfo</v>
       </c>
       <c r="C164" s="57" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D164" s="63" t="s">
         <v>56</v>
@@ -17135,19 +17144,19 @@
         <v>314</v>
       </c>
       <c r="F164" s="75" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G164" s="75" t="s">
         <v>127</v>
       </c>
       <c r="H164" s="161" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I164" s="75" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="J164" s="77" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="165" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -17169,7 +17178,7 @@
         <v>LocationGroup.locationGroupIdentifier</v>
       </c>
       <c r="C166" s="57" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D166" s="36" t="s">
         <v>8</v>
@@ -17178,19 +17187,19 @@
         <v>241</v>
       </c>
       <c r="F166" s="78" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G166" s="78" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H166" s="79" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I166" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J166" s="41" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -17200,7 +17209,7 @@
         <v>LocationGroup.locationGroupType</v>
       </c>
       <c r="C167" s="57" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D167" s="44" t="s">
         <v>14</v>
@@ -17221,7 +17230,7 @@
         <v>11</v>
       </c>
       <c r="J167" s="34" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -17231,7 +17240,7 @@
         <v>LocationGroup.locationGroupName</v>
       </c>
       <c r="C168" s="57" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D168" s="63" t="s">
         <v>56</v>
@@ -17240,19 +17249,19 @@
         <v>241</v>
       </c>
       <c r="F168" s="53" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G168" s="53" t="s">
         <v>86</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="I168" s="55" t="s">
         <v>11</v>
       </c>
       <c r="J168" s="41" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="169" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -17262,7 +17271,7 @@
         <v>LocationGroup.sourceLink</v>
       </c>
       <c r="C169" s="57" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D169" s="63" t="s">
         <v>56</v>
@@ -17293,7 +17302,7 @@
         <v>LocationGroup.customAttributes</v>
       </c>
       <c r="C170" s="57" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D170" s="63" t="s">
         <v>56</v>
@@ -17313,7 +17322,7 @@
         <v>LocationGroupCustomAttributes</v>
       </c>
       <c r="J170" s="41" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>

--- a/Envizi-SCI Data Dictionary.xlsx
+++ b/Envizi-SCI Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\903106897\Box\Sustainability Platform\2.4 Products - implementation\5. Content drafts\5. Configuring\E-SCI-data-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeWhitney\Box\Sustainability Platform\2.2 Products - PM\1 - Scope 3.1\7 - Docs and training\E-SCI data dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180DA52-8369-4AD8-89EB-A59498A0C80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE6B282-30ED-4FB0-A001-D32A40AE49C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23655" yWindow="5130" windowWidth="33540" windowHeight="24495" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="8565" windowWidth="25845" windowHeight="21780" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Data object summary" sheetId="37" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="5. Dictionary- extension" sheetId="40" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. Dictionary - for import'!$A$1:$K$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. Dictionary - for import'!$A$1:$K$148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4. Dictionary - calculated'!$A$1:$K$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5. Dictionary- extension'!$A$1:$J$170</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="999">
   <si>
     <t>Composite</t>
   </si>
@@ -3042,6 +3042,24 @@
   </si>
   <si>
     <t>ORGANIZATION, CUSTOMER, SUPPLIER</t>
+  </si>
+  <si>
+    <t>parentCode</t>
+  </si>
+  <si>
+    <t>Parent code</t>
+  </si>
+  <si>
+    <t>parentLevel</t>
+  </si>
+  <si>
+    <t>Parent level type</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>Hardware</t>
   </si>
 </sst>
 </file>
@@ -5176,11 +5194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C82B5E-6886-426F-B611-7572CEAEA0E1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5466,6 +5483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AA4E64-0BA7-4F27-968B-F6BC2F261EEC}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -5763,12 +5781,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E18004-7DF9-473B-A516-8177819D696E}">
-  <dimension ref="A1:K146"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F77" sqref="F76:F77"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6696,7 +6715,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="34" t="str">
-        <f t="shared" ref="B30:B39" si="1">C30&amp;"."&amp;F30</f>
+        <f t="shared" ref="B30:B41" si="1">C30&amp;"."&amp;F30</f>
         <v>Catalog.levelType</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -6921,75 +6940,61 @@
         <v>377</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
-      <c r="B37" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>Catalog.sourceLink</v>
-      </c>
+      <c r="B37" s="34"/>
       <c r="C37" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="63" t="s">
-        <v>56</v>
+      <c r="D37" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>369</v>
+        <v>993</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="H37" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="I37" s="55" t="s">
-        <v>11</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>997</v>
+      </c>
+      <c r="I37" s="55"/>
       <c r="J37" s="55"/>
-      <c r="K37" s="41" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="41"/>
+    </row>
+    <row r="38" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
-      <c r="B38" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>Catalog.currentYearEmissionsTarget</v>
-      </c>
-      <c r="C38" s="74" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>44</v>
+      <c r="D38" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F38" s="75" t="s">
-        <v>378</v>
-      </c>
-      <c r="G38" s="75" t="s">
-        <v>379</v>
-      </c>
-      <c r="H38" s="76">
-        <v>159.88</v>
-      </c>
-      <c r="I38" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="J38" s="75"/>
-      <c r="K38" s="77" t="s">
-        <v>380</v>
-      </c>
+      <c r="F38" s="53" t="s">
+        <v>995</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>996</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>998</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>Catalog.customAttributes</v>
+        <v>Catalog.sourceLink</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>95</v>
@@ -7000,234 +7005,234 @@
       <c r="E39" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F39" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="G39" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70" t="str">
-        <f>C39&amp;"CustomAttributes"</f>
-        <v>CatalogCustomAttributes</v>
-      </c>
-      <c r="J39" s="70"/>
+      <c r="F39" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="55"/>
       <c r="K39" s="41" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Catalog.currentYearEmissionsTarget</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="H40" s="76">
+        <v>159.88</v>
+      </c>
+      <c r="I40" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="75"/>
+      <c r="K40" s="77" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="34" t="str">
-        <f t="shared" ref="B41:B59" si="2">C41&amp;"."&amp;F41</f>
-        <v>Location.locationIdentifier</v>
+        <f t="shared" si="1"/>
+        <v>Catalog.customAttributes</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="80"/>
+        <v>314</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70" t="str">
+        <f>C41&amp;"CustomAttributes"</f>
+        <v>CatalogCustomAttributes</v>
+      </c>
+      <c r="J41" s="70"/>
       <c r="K41" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>Location.locationType</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="162" t="s">
-        <v>992</v>
-      </c>
-      <c r="I42" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="83"/>
-      <c r="K42" s="41" t="s">
-        <v>199</v>
-      </c>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="32"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="33"/>
       <c r="B43" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>Location.status</v>
+        <f t="shared" ref="B43:B61" si="2">C43&amp;"."&amp;F43</f>
+        <v>Location.locationIdentifier</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="52" t="s">
-        <v>334</v>
+      <c r="D43" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>335</v>
-      </c>
-      <c r="G43" s="68" t="s">
-        <v>334</v>
-      </c>
-      <c r="H43" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="I43" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="68"/>
+      <c r="J43" s="80"/>
       <c r="K43" s="41" t="s">
-        <v>382</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.locationName</v>
-      </c>
-      <c r="C44" s="43" t="s">
+        <v>Location.locationType</v>
+      </c>
+      <c r="C44" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="63" t="s">
-        <v>56</v>
+      <c r="D44" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="E44" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="F44" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H44" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="55" t="s">
+      <c r="F44" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="162" t="s">
+        <v>992</v>
+      </c>
+      <c r="I44" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="48" t="s">
-        <v>177</v>
+      <c r="J44" s="83"/>
+      <c r="K44" s="41" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
       <c r="B45" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.address1</v>
+        <v>Location.status</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="63" t="s">
-        <v>56</v>
+      <c r="D45" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>385</v>
-      </c>
-      <c r="I45" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="I45" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="84"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.address2</v>
-      </c>
-      <c r="C46" s="35" t="s">
+        <v>Location.locationName</v>
+      </c>
+      <c r="C46" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F46" s="68" t="s">
-        <v>387</v>
-      </c>
-      <c r="G46" s="68" t="s">
-        <v>388</v>
-      </c>
-      <c r="H46" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="I46" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="70"/>
-      <c r="K46" s="41" t="s">
-        <v>390</v>
+      <c r="J46" s="55"/>
+      <c r="K46" s="48" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.city</v>
-      </c>
-      <c r="C47" s="57" t="s">
+        <v>Location.address1</v>
+      </c>
+      <c r="C47" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="63" t="s">
@@ -7237,59 +7242,59 @@
         <v>319</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>991</v>
-      </c>
-      <c r="I47" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="I47" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="70"/>
-      <c r="K47" s="34" t="s">
-        <v>393</v>
+      <c r="J47" s="84"/>
+      <c r="K47" s="41" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.postalCode</v>
-      </c>
-      <c r="C48" s="57" t="s">
+        <v>Location.address2</v>
+      </c>
+      <c r="C48" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="H48" s="69">
-        <v>518057</v>
+        <v>388</v>
+      </c>
+      <c r="H48" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="I48" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J48" s="70"/>
-      <c r="K48" s="34" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K48" s="41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.stateProvince</v>
+        <v>Location.city</v>
       </c>
       <c r="C49" s="57" t="s">
         <v>31</v>
@@ -7301,93 +7306,93 @@
         <v>319</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>399</v>
+        <v>991</v>
       </c>
       <c r="I49" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J49" s="70"/>
       <c r="K49" s="34" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.country</v>
-      </c>
-      <c r="C50" s="35" t="s">
+        <v>Location.postalCode</v>
+      </c>
+      <c r="C50" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>401</v>
-      </c>
-      <c r="H50" s="69" t="s">
-        <v>988</v>
+        <v>395</v>
+      </c>
+      <c r="H50" s="69">
+        <v>518057</v>
       </c>
       <c r="I50" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J50" s="70"/>
-      <c r="K50" s="77" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
       <c r="B51" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.countyRegion</v>
-      </c>
-      <c r="C51" s="74" t="s">
+        <v>Location.stateProvince</v>
+      </c>
+      <c r="C51" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F51" s="75" t="s">
-        <v>402</v>
-      </c>
-      <c r="G51" s="75" t="s">
-        <v>403</v>
-      </c>
-      <c r="H51" s="76" t="s">
-        <v>990</v>
-      </c>
-      <c r="I51" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="F51" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="I51" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="75"/>
-      <c r="K51" s="77" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="70"/>
+      <c r="K51" s="34" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="33"/>
       <c r="B52" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.secondaryIdentifier</v>
-      </c>
-      <c r="C52" s="74" t="s">
+        <v>Location.country</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="63" t="s">
@@ -7396,30 +7401,30 @@
       <c r="E52" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="75" t="s">
-        <v>153</v>
+      <c r="F52" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="G52" s="68" t="s">
+        <v>401</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="75" t="s">
+        <v>988</v>
+      </c>
+      <c r="I52" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="75"/>
+      <c r="J52" s="70"/>
       <c r="K52" s="77" t="s">
-        <v>152</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.geo</v>
-      </c>
-      <c r="C53" s="57" t="s">
+        <v>Location.countyRegion</v>
+      </c>
+      <c r="C53" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="63" t="s">
@@ -7428,60 +7433,60 @@
       <c r="E53" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F53" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="G53" s="68" t="s">
-        <v>406</v>
-      </c>
-      <c r="H53" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="I53" s="70" t="s">
+      <c r="F53" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="H53" s="76" t="s">
+        <v>990</v>
+      </c>
+      <c r="I53" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="70"/>
-      <c r="K53" s="34" t="s">
-        <v>393</v>
+      <c r="J53" s="75"/>
+      <c r="K53" s="77" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
       <c r="B54" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.coordinates</v>
-      </c>
-      <c r="C54" s="57" t="s">
+        <v>Location.secondaryIdentifier</v>
+      </c>
+      <c r="C54" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D54" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F54" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="G54" s="68" t="s">
-        <v>409</v>
+        <v>241</v>
+      </c>
+      <c r="F54" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>153</v>
       </c>
       <c r="H54" s="69" t="s">
-        <v>410</v>
-      </c>
-      <c r="I54" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="70"/>
-      <c r="K54" s="34" t="s">
-        <v>411</v>
+      <c r="J54" s="75"/>
+      <c r="K54" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.geoLocation</v>
+        <v>Location.geo</v>
       </c>
       <c r="C55" s="57" t="s">
         <v>31</v>
@@ -7493,61 +7498,61 @@
         <v>314</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G55" s="68" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H55" s="69" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I55" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J55" s="70"/>
       <c r="K55" s="34" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="33"/>
       <c r="B56" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.includeInCorrelation</v>
-      </c>
-      <c r="C56" s="35" t="s">
+        <v>Location.coordinates</v>
+      </c>
+      <c r="C56" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G56" s="68" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H56" s="69" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I56" s="70" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="J56" s="70"/>
-      <c r="K56" s="41" t="s">
-        <v>420</v>
+      <c r="K56" s="34" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="33"/>
       <c r="B57" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.locationSubtype</v>
-      </c>
-      <c r="C57" s="35" t="s">
+        <v>Location.geoLocation</v>
+      </c>
+      <c r="C57" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="63" t="s">
@@ -7557,27 +7562,27 @@
         <v>314</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G57" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="I57" s="84" t="s">
+        <v>413</v>
+      </c>
+      <c r="H57" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="I57" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="84"/>
-      <c r="K57" s="41" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="70"/>
+      <c r="K57" s="34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
       <c r="B58" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.sourceLink</v>
+        <v>Location.includeInCorrelation</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>31</v>
@@ -7589,27 +7594,27 @@
         <v>314</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="G58" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="H58" s="67" t="s">
-        <v>371</v>
+        <v>417</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>418</v>
       </c>
       <c r="I58" s="70" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="J58" s="70"/>
       <c r="K58" s="41" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="33"/>
       <c r="B59" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Location.customAttributes</v>
+        <v>Location.locationSubtype</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>31</v>
@@ -7621,269 +7626,269 @@
         <v>314</v>
       </c>
       <c r="F59" s="68" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="H59" s="69"/>
-      <c r="I59" s="70" t="str">
-        <f>C59&amp;"CustomAttributes"</f>
-        <v>LocationCustomAttributes</v>
-      </c>
-      <c r="J59" s="70"/>
+        <v>422</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="I59" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="84"/>
       <c r="K59" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="32"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Location.sourceLink</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F60" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="H60" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="I60" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="70"/>
+      <c r="K60" s="41" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="33"/>
       <c r="B61" s="34" t="str">
-        <f t="shared" ref="B61:B71" si="3">C61&amp;"."&amp;F61</f>
-        <v>Organization.organizationIdentifier</v>
+        <f t="shared" si="2"/>
+        <v>Location.customAttributes</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="D61" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F61" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I61" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="80"/>
+        <v>314</v>
+      </c>
+      <c r="F61" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G61" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="H61" s="69"/>
+      <c r="I61" s="70" t="str">
+        <f>C61&amp;"CustomAttributes"</f>
+        <v>LocationCustomAttributes</v>
+      </c>
+      <c r="J61" s="70"/>
       <c r="K61" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>Organization.location.locationIdentifier</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F62" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" s="86" t="s">
-        <v>426</v>
-      </c>
-      <c r="I62" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>427</v>
-      </c>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="32"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="33"/>
       <c r="B63" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>Organization.orgType</v>
+        <f t="shared" ref="B63:B73" si="3">C63&amp;"."&amp;F63</f>
+        <v>Organization.organizationIdentifier</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="89" t="s">
+      <c r="D63" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="F63" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="46" t="s">
-        <v>428</v>
-      </c>
-      <c r="I63" s="47" t="s">
+      <c r="F63" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="47"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="41" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="33"/>
       <c r="B64" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.primaryContact.contactIdentifier</v>
-      </c>
-      <c r="C64" s="74" t="s">
+        <v>Organization.location.locationIdentifier</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F64" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="G64" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="I64" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" s="86" t="s">
+        <v>426</v>
+      </c>
+      <c r="I64" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="K64" s="77" t="s">
-        <v>156</v>
+      <c r="J64" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="K64" s="41" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="33"/>
       <c r="B65" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.name</v>
-      </c>
-      <c r="C65" s="43" t="s">
+        <v>Organization.orgType</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="37" t="s">
+      <c r="D65" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="F65" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="H65" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="I65" s="55" t="s">
+      <c r="F65" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="I65" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J65" s="55"/>
-      <c r="K65" s="48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J65" s="47"/>
+      <c r="K65" s="41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
       <c r="B66" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.division</v>
-      </c>
-      <c r="C66" s="35" t="s">
+        <v>Organization.primaryContact.contactIdentifier</v>
+      </c>
+      <c r="C66" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="63" t="s">
-        <v>56</v>
+      <c r="D66" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F66" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="G66" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="H66" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="I66" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="55"/>
-      <c r="K66" s="41" t="s">
-        <v>432</v>
+        <v>241</v>
+      </c>
+      <c r="F66" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="K66" s="77" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="33"/>
       <c r="B67" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.sourceLink</v>
-      </c>
-      <c r="C67" s="35" t="s">
+        <v>Organization.name</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="F67" s="53" t="s">
-        <v>369</v>
+        <v>85</v>
       </c>
       <c r="G67" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="H67" s="67" t="s">
-        <v>371</v>
+        <v>93</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>94</v>
       </c>
       <c r="I67" s="55" t="s">
         <v>11</v>
       </c>
       <c r="J67" s="55"/>
-      <c r="K67" s="41" t="s">
-        <v>372</v>
+      <c r="K67" s="48" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="33"/>
       <c r="B68" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.defaultBucketDefinition</v>
-      </c>
-      <c r="C68" s="74" t="s">
+        <v>Organization.division</v>
+      </c>
+      <c r="C68" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="63" t="s">
@@ -7892,28 +7897,28 @@
       <c r="E68" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F68" s="75" t="s">
-        <v>433</v>
-      </c>
-      <c r="G68" s="75" t="s">
-        <v>434</v>
-      </c>
-      <c r="H68" s="69" t="s">
-        <v>435</v>
-      </c>
-      <c r="I68" s="75" t="s">
+      <c r="F68" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="I68" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="75"/>
-      <c r="K68" s="77" t="s">
-        <v>436</v>
+      <c r="J68" s="55"/>
+      <c r="K68" s="41" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="B69" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.owningTenant</v>
+        <v>Organization.sourceLink</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>30</v>
@@ -7924,28 +7929,28 @@
       <c r="E69" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F69" s="68" t="s">
-        <v>437</v>
-      </c>
-      <c r="G69" s="68" t="s">
-        <v>438</v>
-      </c>
-      <c r="H69" s="69" t="s">
-        <v>439</v>
-      </c>
-      <c r="I69" s="70" t="s">
+      <c r="F69" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G69" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="I69" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J69" s="70"/>
+      <c r="J69" s="55"/>
       <c r="K69" s="41" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
       <c r="B70" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.secondaryIdentifier</v>
+        <v>Organization.defaultBucketDefinition</v>
       </c>
       <c r="C70" s="74" t="s">
         <v>30</v>
@@ -7954,30 +7959,30 @@
         <v>56</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F70" s="75" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" s="76" t="s">
-        <v>18</v>
+        <v>434</v>
+      </c>
+      <c r="H70" s="69" t="s">
+        <v>435</v>
       </c>
       <c r="I70" s="75" t="s">
         <v>11</v>
       </c>
       <c r="J70" s="75"/>
       <c r="K70" s="77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
       <c r="B71" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Organization.customAttributes</v>
+        <v>Organization.owningTenant</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>30</v>
@@ -7989,135 +7994,135 @@
         <v>314</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="G71" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="H71" s="69"/>
-      <c r="I71" s="70" t="str">
-        <f>C71&amp;"CustomAttributes"</f>
-        <v>OrganizationCustomAttributes</v>
+        <v>438</v>
+      </c>
+      <c r="H71" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="I71" s="70" t="s">
+        <v>11</v>
       </c>
       <c r="J71" s="70"/>
       <c r="K71" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="32"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>Organization.secondaryIdentifier</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F72" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="75"/>
+      <c r="K72" s="77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="34" t="str">
-        <f t="shared" ref="B73:B80" si="4">C73&amp;"."&amp;F73</f>
-        <v>Contact.contactIdentifier</v>
-      </c>
-      <c r="C73" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>Organization.customAttributes</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>56</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F73" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="G73" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="H73" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="I73" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J73" s="80"/>
-      <c r="K73" s="77" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>Contact.emailAddress</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F74" s="68" t="s">
-        <v>442</v>
-      </c>
-      <c r="G74" s="68" t="s">
-        <v>443</v>
-      </c>
-      <c r="H74" s="67" t="s">
-        <v>444</v>
-      </c>
-      <c r="I74" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J74" s="80"/>
-      <c r="K74" s="41" t="s">
-        <v>445</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G73" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="H73" s="69"/>
+      <c r="I73" s="70" t="str">
+        <f>C73&amp;"CustomAttributes"</f>
+        <v>OrganizationCustomAttributes</v>
+      </c>
+      <c r="J73" s="70"/>
+      <c r="K73" s="41" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="32"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>Contact.phoneNumber</v>
-      </c>
-      <c r="C75" s="35" t="s">
+        <f t="shared" ref="B75:B82" si="4">C75&amp;"."&amp;F75</f>
+        <v>Contact.contactIdentifier</v>
+      </c>
+      <c r="C75" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="63" t="s">
-        <v>56</v>
+      <c r="D75" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F75" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="G75" s="68" t="s">
-        <v>447</v>
-      </c>
-      <c r="H75" s="69" t="s">
-        <v>448</v>
+        <v>241</v>
+      </c>
+      <c r="F75" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="H75" s="91" t="s">
+        <v>159</v>
       </c>
       <c r="I75" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J75" s="80"/>
-      <c r="K75" s="41" t="s">
-        <v>449</v>
+      <c r="K75" s="77" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>Contact.firstName</v>
+        <v>Contact.emailAddress</v>
       </c>
       <c r="C76" s="35" t="s">
         <v>120</v>
@@ -8129,27 +8134,27 @@
         <v>241</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G76" s="68" t="s">
-        <v>451</v>
-      </c>
-      <c r="H76" s="69" t="s">
-        <v>452</v>
+        <v>443</v>
+      </c>
+      <c r="H76" s="67" t="s">
+        <v>444</v>
       </c>
       <c r="I76" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J76" s="80"/>
       <c r="K76" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="33"/>
       <c r="B77" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>Contact.lastName</v>
+        <v>Contact.phoneNumber</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>120</v>
@@ -8158,30 +8163,30 @@
         <v>56</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="F77" s="68" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G77" s="68" t="s">
-        <v>455</v>
-      </c>
-      <c r="H77" s="92" t="s">
-        <v>456</v>
+        <v>447</v>
+      </c>
+      <c r="H77" s="69" t="s">
+        <v>448</v>
       </c>
       <c r="I77" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J77" s="80"/>
       <c r="K77" s="41" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
       <c r="B78" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>Contact.faxNumber</v>
+        <v>Contact.firstName</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>120</v>
@@ -8190,30 +8195,30 @@
         <v>56</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="F78" s="68" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G78" s="68" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H78" s="69" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I78" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J78" s="80"/>
       <c r="K78" s="41" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
       <c r="B79" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>Contact.locale</v>
+        <v>Contact.lastName</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>120</v>
@@ -8222,30 +8227,30 @@
         <v>56</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="F79" s="68" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G79" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="H79" s="69" t="s">
-        <v>463</v>
+        <v>455</v>
+      </c>
+      <c r="H79" s="92" t="s">
+        <v>456</v>
       </c>
       <c r="I79" s="80" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="80"/>
       <c r="K79" s="41" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33"/>
       <c r="B80" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>Contact.customAttributes</v>
+        <v>Contact.faxNumber</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>120</v>
@@ -8254,206 +8259,202 @@
         <v>56</v>
       </c>
       <c r="E80" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="G80" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="H80" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="I80" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="80"/>
+      <c r="K80" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>Contact.locale</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F80" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="G80" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="H80" s="69"/>
-      <c r="I80" s="70" t="str">
-        <f>C80&amp;"CustomAttributes"</f>
-        <v>ContactCustomAttributes</v>
-      </c>
-      <c r="J80" s="70"/>
-      <c r="K80" s="41" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="32"/>
+      <c r="F81" s="68" t="s">
+        <v>461</v>
+      </c>
+      <c r="G81" s="68" t="s">
+        <v>462</v>
+      </c>
+      <c r="H81" s="69" t="s">
+        <v>463</v>
+      </c>
+      <c r="I81" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="80"/>
+      <c r="K81" s="41" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="82" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33"/>
       <c r="B82" s="34" t="str">
-        <f t="shared" ref="B82:B115" si="5">C82&amp;"."&amp;F82</f>
-        <v>Order.orderIdentifier</v>
+        <f t="shared" si="4"/>
+        <v>Contact.customAttributes</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="F82" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="79">
-        <v>100013204</v>
-      </c>
-      <c r="I82" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="80"/>
+        <v>120</v>
+      </c>
+      <c r="D82" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F82" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G82" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="H82" s="69"/>
+      <c r="I82" s="70" t="str">
+        <f>C82&amp;"CustomAttributes"</f>
+        <v>ContactCustomAttributes</v>
+      </c>
+      <c r="J82" s="70"/>
       <c r="K82" s="41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>Order.orderType</v>
-      </c>
-      <c r="C83" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="F83" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="I83" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="80"/>
-      <c r="K83" s="97" t="s">
-        <v>188</v>
-      </c>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33"/>
       <c r="B84" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>Order.orderSubType</v>
+        <f t="shared" ref="B84:B117" si="5">C84&amp;"."&amp;F84</f>
+        <v>Order.orderIdentifier</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F84" s="81" t="s">
-        <v>466</v>
-      </c>
-      <c r="G84" s="81" t="s">
-        <v>467</v>
-      </c>
-      <c r="H84" s="82" t="s">
-        <v>468</v>
-      </c>
-      <c r="I84" s="83" t="s">
+      <c r="D84" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="F84" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="79">
+        <v>100013204</v>
+      </c>
+      <c r="I84" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J84" s="83"/>
+      <c r="J84" s="80"/>
       <c r="K84" s="41" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="33"/>
       <c r="B85" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.vendor.organizationIdentifier</v>
-      </c>
-      <c r="C85" s="35" t="s">
+        <v>Order.orderType</v>
+      </c>
+      <c r="C85" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="49" t="s">
-        <v>15</v>
+      <c r="D85" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="E85" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="F85" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="J85" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="K85" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F85" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="80"/>
+      <c r="K85" s="97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.buyer.organizationIdentifier</v>
+        <v>Order.orderSubType</v>
       </c>
       <c r="C86" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="F86" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="50" t="s">
-        <v>247</v>
-      </c>
+      <c r="D86" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F86" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="G86" s="81" t="s">
+        <v>467</v>
+      </c>
+      <c r="H86" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="I86" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="83"/>
       <c r="K86" s="41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
       <c r="B87" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.shipFromInstructionLocation.locationIdentifier</v>
+        <v>Order.vendor.organizationIdentifier</v>
       </c>
       <c r="C87" s="35" t="s">
         <v>7</v>
@@ -8461,33 +8462,33 @@
       <c r="D87" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="37" t="s">
-        <v>319</v>
+      <c r="E87" s="89" t="s">
+        <v>241</v>
       </c>
       <c r="F87" s="71" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G87" s="71" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H87" s="72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I87" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="88" t="s">
-        <v>248</v>
+      <c r="J87" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="K87" s="41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="33"/>
       <c r="B88" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.shipToLocation.locationIdentifier</v>
+        <v>Order.buyer.organizationIdentifier</v>
       </c>
       <c r="C88" s="35" t="s">
         <v>7</v>
@@ -8495,129 +8496,133 @@
       <c r="D88" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="37" t="s">
-        <v>319</v>
+      <c r="E88" s="89" t="s">
+        <v>241</v>
       </c>
       <c r="F88" s="71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G88" s="71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H88" s="72" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I88" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J88" s="88" t="s">
-        <v>248</v>
+      <c r="J88" s="50" t="s">
+        <v>247</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="33"/>
       <c r="B89" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.orderStatus</v>
-      </c>
-      <c r="C89" s="57" t="s">
+        <v>Order.shipFromInstructionLocation.locationIdentifier</v>
+      </c>
+      <c r="C89" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="52" t="s">
-        <v>334</v>
+      <c r="D89" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="E89" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F89" s="68" t="s">
-        <v>470</v>
-      </c>
-      <c r="G89" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="H89" s="69" t="s">
-        <v>472</v>
-      </c>
-      <c r="I89" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="70"/>
-      <c r="K89" s="34" t="s">
-        <v>473</v>
+      <c r="F89" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="K89" s="41" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="33"/>
       <c r="B90" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.createdDate</v>
-      </c>
-      <c r="C90" s="57" t="s">
+        <v>Order.shipToLocation.locationIdentifier</v>
+      </c>
+      <c r="C90" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="100" t="s">
-        <v>32</v>
+      <c r="D90" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="E90" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F90" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G90" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="I90" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="J90" s="70"/>
-      <c r="K90" s="34" t="s">
-        <v>215</v>
+      <c r="F90" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="K90" s="41" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="33"/>
       <c r="B91" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.requestedShipDate</v>
+        <v>Order.orderStatus</v>
       </c>
       <c r="C91" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="100" t="s">
-        <v>32</v>
+      <c r="D91" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="E91" s="37" t="s">
         <v>319</v>
       </c>
       <c r="F91" s="68" t="s">
-        <v>36</v>
+        <v>470</v>
       </c>
       <c r="G91" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" s="101" t="s">
-        <v>238</v>
+        <v>471</v>
+      </c>
+      <c r="H91" s="69" t="s">
+        <v>472</v>
       </c>
       <c r="I91" s="70" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J91" s="70"/>
       <c r="K91" s="34" t="s">
-        <v>222</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="33"/>
       <c r="B92" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.requestedDeliveryDate</v>
+        <v>Order.createdDate</v>
       </c>
       <c r="C92" s="57" t="s">
         <v>7</v>
@@ -8629,10 +8634,10 @@
         <v>319</v>
       </c>
       <c r="F92" s="68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G92" s="68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H92" s="69" t="s">
         <v>238</v>
@@ -8642,14 +8647,14 @@
       </c>
       <c r="J92" s="70"/>
       <c r="K92" s="34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="33"/>
       <c r="B93" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.plannedShipDate</v>
+        <v>Order.requestedShipDate</v>
       </c>
       <c r="C93" s="57" t="s">
         <v>7</v>
@@ -8661,12 +8666,12 @@
         <v>319</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G93" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H93" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="101" t="s">
         <v>238</v>
       </c>
       <c r="I93" s="70" t="s">
@@ -8674,14 +8679,14 @@
       </c>
       <c r="J93" s="70"/>
       <c r="K93" s="34" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="33"/>
       <c r="B94" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.plannedDeliveryDate</v>
+        <v>Order.requestedDeliveryDate</v>
       </c>
       <c r="C94" s="57" t="s">
         <v>7</v>
@@ -8693,10 +8698,10 @@
         <v>319</v>
       </c>
       <c r="F94" s="68" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G94" s="68" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H94" s="69" t="s">
         <v>238</v>
@@ -8706,14 +8711,14 @@
       </c>
       <c r="J94" s="70"/>
       <c r="K94" s="34" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="33"/>
       <c r="B95" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.lastModifiedDate</v>
+        <v>Order.plannedShipDate</v>
       </c>
       <c r="C95" s="57" t="s">
         <v>7</v>
@@ -8722,13 +8727,13 @@
         <v>32</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F95" s="68" t="s">
-        <v>474</v>
+        <v>40</v>
       </c>
       <c r="G95" s="68" t="s">
-        <v>475</v>
+        <v>41</v>
       </c>
       <c r="H95" s="69" t="s">
         <v>238</v>
@@ -8738,110 +8743,110 @@
       </c>
       <c r="J95" s="70"/>
       <c r="K95" s="34" t="s">
-        <v>476</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="33"/>
       <c r="B96" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.archived</v>
-      </c>
-      <c r="C96" s="35" t="s">
+        <v>Order.plannedDeliveryDate</v>
+      </c>
+      <c r="C96" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="100" t="s">
         <v>32</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>477</v>
+        <v>42</v>
       </c>
       <c r="G96" s="68" t="s">
-        <v>478</v>
-      </c>
-      <c r="H96" s="69" t="b">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="H96" s="69" t="s">
+        <v>238</v>
       </c>
       <c r="I96" s="70" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="J96" s="70"/>
-      <c r="K96" s="41" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K96" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="33"/>
       <c r="B97" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.quantity</v>
-      </c>
-      <c r="C97" s="35" t="s">
+        <v>Order.lastModifiedDate</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="56" t="s">
-        <v>44</v>
+      <c r="D97" s="100" t="s">
+        <v>32</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F97" s="68" t="s">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="G97" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H97" s="69">
-        <v>5</v>
+        <v>475</v>
+      </c>
+      <c r="H97" s="69" t="s">
+        <v>238</v>
       </c>
       <c r="I97" s="70" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J97" s="70"/>
-      <c r="K97" s="41" t="s">
-        <v>196</v>
+      <c r="K97" s="34" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="33"/>
       <c r="B98" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.quantityUnits</v>
-      </c>
-      <c r="C98" s="57" t="s">
+        <v>Order.archived</v>
+      </c>
+      <c r="C98" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="56" t="s">
-        <v>44</v>
+      <c r="D98" s="100" t="s">
+        <v>32</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F98" s="68" t="s">
-        <v>48</v>
+        <v>477</v>
       </c>
       <c r="G98" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="H98" s="69" t="s">
-        <v>50</v>
+        <v>478</v>
+      </c>
+      <c r="H98" s="69" t="b">
+        <v>0</v>
       </c>
       <c r="I98" s="70" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="J98" s="70"/>
-      <c r="K98" s="34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="33"/>
       <c r="B99" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.totalValue</v>
+        <v>Order.quantity</v>
       </c>
       <c r="C99" s="35" t="s">
         <v>7</v>
@@ -8853,27 +8858,27 @@
         <v>319</v>
       </c>
       <c r="F99" s="68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G99" s="68" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H99" s="69">
-        <v>10850</v>
+        <v>5</v>
       </c>
       <c r="I99" s="70" t="s">
         <v>47</v>
       </c>
       <c r="J99" s="70"/>
       <c r="K99" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="33"/>
       <c r="B100" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.orderValueCurrency</v>
+        <v>Order.quantityUnits</v>
       </c>
       <c r="C100" s="57" t="s">
         <v>7</v>
@@ -8885,29 +8890,29 @@
         <v>319</v>
       </c>
       <c r="F100" s="68" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G100" s="68" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H100" s="69" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I100" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J100" s="70"/>
       <c r="K100" s="34" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
       <c r="B101" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.lineCount</v>
-      </c>
-      <c r="C101" s="102" t="s">
+        <v>Order.totalValue</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="56" t="s">
@@ -8916,30 +8921,30 @@
       <c r="E101" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F101" s="103" t="s">
-        <v>480</v>
-      </c>
-      <c r="G101" s="103" t="s">
-        <v>481</v>
+      <c r="F101" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101" s="68" t="s">
+        <v>52</v>
       </c>
       <c r="H101" s="69">
-        <v>5</v>
+        <v>10850</v>
       </c>
       <c r="I101" s="70" t="s">
-        <v>356</v>
+        <v>47</v>
       </c>
       <c r="J101" s="70"/>
-      <c r="K101" s="104" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K101" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="33"/>
       <c r="B102" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.totalShippedQuantity</v>
-      </c>
-      <c r="C102" s="35" t="s">
+        <v>Order.orderValueCurrency</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="56" t="s">
@@ -8949,91 +8954,91 @@
         <v>319</v>
       </c>
       <c r="F102" s="68" t="s">
-        <v>483</v>
+        <v>53</v>
       </c>
       <c r="G102" s="68" t="s">
-        <v>484</v>
-      </c>
-      <c r="H102" s="69">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="H102" s="69" t="s">
+        <v>55</v>
       </c>
       <c r="I102" s="70" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J102" s="70"/>
-      <c r="K102" s="41" t="s">
-        <v>485</v>
+      <c r="K102" s="34" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="33"/>
       <c r="B103" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.changeSequence</v>
-      </c>
-      <c r="C103" s="57" t="s">
+        <v>Order.lineCount</v>
+      </c>
+      <c r="C103" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="63" t="s">
-        <v>56</v>
+      <c r="D103" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F103" s="103" t="s">
-        <v>486</v>
-      </c>
-      <c r="G103" s="105" t="s">
-        <v>487</v>
-      </c>
-      <c r="H103" s="106">
-        <v>199</v>
+        <v>480</v>
+      </c>
+      <c r="G103" s="103" t="s">
+        <v>481</v>
+      </c>
+      <c r="H103" s="69">
+        <v>5</v>
       </c>
       <c r="I103" s="70" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="J103" s="70"/>
-      <c r="K103" s="34" t="s">
-        <v>488</v>
+      <c r="K103" s="104" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="33"/>
       <c r="B104" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.department</v>
+        <v>Order.totalShippedQuantity</v>
       </c>
       <c r="C104" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="63" t="s">
-        <v>56</v>
+      <c r="D104" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F104" s="103" t="s">
-        <v>489</v>
-      </c>
-      <c r="G104" s="105" t="s">
-        <v>490</v>
-      </c>
-      <c r="H104" s="106" t="s">
-        <v>491</v>
+        <v>319</v>
+      </c>
+      <c r="F104" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="G104" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="H104" s="69">
+        <v>5</v>
       </c>
       <c r="I104" s="70" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J104" s="70"/>
       <c r="K104" s="41" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="33"/>
       <c r="B105" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.freightTerms</v>
+        <v>Order.changeSequence</v>
       </c>
       <c r="C105" s="57" t="s">
         <v>7</v>
@@ -9045,27 +9050,27 @@
         <v>314</v>
       </c>
       <c r="F105" s="103" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G105" s="105" t="s">
-        <v>494</v>
-      </c>
-      <c r="H105" s="106" t="s">
-        <v>495</v>
+        <v>487</v>
+      </c>
+      <c r="H105" s="106">
+        <v>199</v>
       </c>
       <c r="I105" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J105" s="70"/>
       <c r="K105" s="34" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33"/>
       <c r="B106" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.scacCodeInstructions</v>
+        <v>Order.department</v>
       </c>
       <c r="C106" s="35" t="s">
         <v>7</v>
@@ -9077,27 +9082,27 @@
         <v>314</v>
       </c>
       <c r="F106" s="103" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G106" s="105" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H106" s="106" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="I106" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J106" s="70"/>
       <c r="K106" s="41" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="33"/>
       <c r="B107" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.tag</v>
+        <v>Order.freightTerms</v>
       </c>
       <c r="C107" s="57" t="s">
         <v>7</v>
@@ -9108,28 +9113,28 @@
       <c r="E107" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F107" s="68" t="s">
-        <v>501</v>
-      </c>
-      <c r="G107" s="68" t="s">
-        <v>502</v>
-      </c>
-      <c r="H107" s="69" t="s">
-        <v>503</v>
+      <c r="F107" s="103" t="s">
+        <v>493</v>
+      </c>
+      <c r="G107" s="105" t="s">
+        <v>494</v>
+      </c>
+      <c r="H107" s="106" t="s">
+        <v>495</v>
       </c>
       <c r="I107" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J107" s="70"/>
       <c r="K107" s="34" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="33"/>
       <c r="B108" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.movementCode</v>
+        <v>Order.scacCodeInstructions</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>7</v>
@@ -9140,30 +9145,30 @@
       <c r="E108" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F108" s="68" t="s">
-        <v>505</v>
-      </c>
-      <c r="G108" s="68" t="s">
-        <v>506</v>
-      </c>
-      <c r="H108" s="69" t="s">
-        <v>507</v>
+      <c r="F108" s="103" t="s">
+        <v>497</v>
+      </c>
+      <c r="G108" s="105" t="s">
+        <v>498</v>
+      </c>
+      <c r="H108" s="106" t="s">
+        <v>499</v>
       </c>
       <c r="I108" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J108" s="70"/>
       <c r="K108" s="41" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="33"/>
       <c r="B109" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.contractNumber</v>
-      </c>
-      <c r="C109" s="35" t="s">
+        <v>Order.tag</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="63" t="s">
@@ -9173,27 +9178,27 @@
         <v>314</v>
       </c>
       <c r="F109" s="68" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G109" s="68" t="s">
-        <v>510</v>
-      </c>
-      <c r="H109" s="69">
-        <v>978745243</v>
+        <v>502</v>
+      </c>
+      <c r="H109" s="69" t="s">
+        <v>503</v>
       </c>
       <c r="I109" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J109" s="70"/>
-      <c r="K109" s="41" t="s">
-        <v>511</v>
+      <c r="K109" s="34" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="33"/>
       <c r="B110" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.purchasingGroup</v>
+        <v>Order.movementCode</v>
       </c>
       <c r="C110" s="35" t="s">
         <v>7</v>
@@ -9205,27 +9210,27 @@
         <v>314</v>
       </c>
       <c r="F110" s="68" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G110" s="68" t="s">
-        <v>513</v>
-      </c>
-      <c r="H110" s="69">
-        <v>42342</v>
+        <v>506</v>
+      </c>
+      <c r="H110" s="69" t="s">
+        <v>507</v>
       </c>
       <c r="I110" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J110" s="70"/>
       <c r="K110" s="41" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="33"/>
       <c r="B111" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.costCenter</v>
+        <v>Order.contractNumber</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>7</v>
@@ -9237,27 +9242,27 @@
         <v>314</v>
       </c>
       <c r="F111" s="68" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G111" s="68" t="s">
-        <v>516</v>
-      </c>
-      <c r="H111" s="69" t="s">
-        <v>517</v>
+        <v>510</v>
+      </c>
+      <c r="H111" s="69">
+        <v>978745243</v>
       </c>
       <c r="I111" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J111" s="70"/>
       <c r="K111" s="41" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="33"/>
       <c r="B112" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.profitCenter</v>
+        <v>Order.purchasingGroup</v>
       </c>
       <c r="C112" s="35" t="s">
         <v>7</v>
@@ -9269,27 +9274,27 @@
         <v>314</v>
       </c>
       <c r="F112" s="68" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G112" s="68" t="s">
-        <v>520</v>
-      </c>
-      <c r="H112" s="69" t="s">
-        <v>521</v>
+        <v>513</v>
+      </c>
+      <c r="H112" s="69">
+        <v>42342</v>
       </c>
       <c r="I112" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J112" s="70"/>
       <c r="K112" s="41" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="33"/>
       <c r="B113" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.exclude</v>
+        <v>Order.costCenter</v>
       </c>
       <c r="C113" s="35" t="s">
         <v>7</v>
@@ -9301,27 +9306,27 @@
         <v>314</v>
       </c>
       <c r="F113" s="68" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G113" s="68" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H113" s="69" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="I113" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J113" s="70"/>
       <c r="K113" s="41" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33"/>
       <c r="B114" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.sourceLink</v>
+        <v>Order.profitCenter</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>7</v>
@@ -9333,27 +9338,27 @@
         <v>314</v>
       </c>
       <c r="F114" s="68" t="s">
-        <v>369</v>
+        <v>519</v>
       </c>
       <c r="G114" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="H114" s="67" t="s">
-        <v>371</v>
+        <v>520</v>
+      </c>
+      <c r="H114" s="69" t="s">
+        <v>521</v>
       </c>
       <c r="I114" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J114" s="70"/>
       <c r="K114" s="41" t="s">
-        <v>372</v>
+        <v>522</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="33"/>
       <c r="B115" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Order.customAttributes</v>
+        <v>Order.exclude</v>
       </c>
       <c r="C115" s="35" t="s">
         <v>7</v>
@@ -9365,107 +9370,105 @@
         <v>314</v>
       </c>
       <c r="F115" s="68" t="s">
-        <v>373</v>
+        <v>523</v>
       </c>
       <c r="G115" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="H115" s="69"/>
-      <c r="I115" s="70" t="str">
-        <f>C115&amp;"CustomAttributes"</f>
-        <v>OrderCustomAttributes</v>
+        <v>524</v>
+      </c>
+      <c r="H115" s="69" t="s">
+        <v>525</v>
+      </c>
+      <c r="I115" s="70" t="s">
+        <v>11</v>
       </c>
       <c r="J115" s="70"/>
       <c r="K115" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="30"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="32"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v>Order.sourceLink</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F116" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="G116" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="H116" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="I116" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" s="70"/>
+      <c r="K116" s="41" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="33"/>
       <c r="B117" s="34" t="str">
-        <f t="shared" ref="B117:B146" si="6">C117&amp;"."&amp;F117</f>
-        <v>OrderLine.order.orderIdentifier</v>
+        <f t="shared" si="5"/>
+        <v>Order.customAttributes</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D117" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="107" t="s">
-        <v>241</v>
-      </c>
-      <c r="F117" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="G117" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="109">
-        <v>100013204</v>
-      </c>
-      <c r="I117" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="J117" s="108" t="s">
-        <v>249</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D117" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G117" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="H117" s="69"/>
+      <c r="I117" s="70" t="str">
+        <f>C117&amp;"CustomAttributes"</f>
+        <v>OrderCustomAttributes</v>
+      </c>
+      <c r="J117" s="70"/>
       <c r="K117" s="41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>OrderLine.orderLineNumber</v>
-      </c>
-      <c r="C118" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D118" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="107" t="s">
-        <v>241</v>
-      </c>
-      <c r="F118" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="G118" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H118" s="79">
-        <v>100</v>
-      </c>
-      <c r="I118" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118" s="80"/>
-      <c r="K118" s="34" t="s">
-        <v>187</v>
-      </c>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="32"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="33"/>
       <c r="B119" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>OrderLine.order.orderType</v>
-      </c>
-      <c r="C119" s="93" t="s">
+        <f t="shared" ref="B119:B148" si="6">C119&amp;"."&amp;F119</f>
+        <v>OrderLine.order.orderIdentifier</v>
+      </c>
+      <c r="C119" s="35" t="s">
         <v>57</v>
       </c>
       <c r="D119" s="36" t="s">
@@ -9475,97 +9478,95 @@
         <v>241</v>
       </c>
       <c r="F119" s="108" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G119" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="I119" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="109">
+        <v>100013204</v>
+      </c>
+      <c r="I119" s="110" t="s">
         <v>19</v>
       </c>
       <c r="J119" s="108" t="s">
-        <v>250</v>
-      </c>
-      <c r="K119" s="97" t="s">
-        <v>188</v>
+        <v>249</v>
+      </c>
+      <c r="K119" s="41" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="33"/>
       <c r="B120" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.product.partNumber</v>
-      </c>
-      <c r="C120" s="35" t="s">
+        <v>OrderLine.orderLineNumber</v>
+      </c>
+      <c r="C120" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D120" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="37" t="s">
+      <c r="D120" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="F120" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G120" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H120" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="I120" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="J120" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="K120" s="41" t="s">
-        <v>209</v>
+      <c r="F120" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="G120" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="H120" s="79">
+        <v>100</v>
+      </c>
+      <c r="I120" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J120" s="80"/>
+      <c r="K120" s="34" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="33"/>
       <c r="B121" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.shipToLocation.locationIdentifier</v>
-      </c>
-      <c r="C121" s="35" t="s">
+        <v>OrderLine.order.orderType</v>
+      </c>
+      <c r="C121" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="D121" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="37" t="s">
+      <c r="D121" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="F121" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="I121" s="71" t="s">
+      <c r="F121" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="G121" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="I121" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="J121" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="K121" s="41" t="s">
-        <v>212</v>
+      <c r="J121" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="K121" s="97" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="33"/>
       <c r="B122" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.shipFromInstructionLocation.locationIdentifier</v>
+        <v>OrderLine.product.partNumber</v>
       </c>
       <c r="C122" s="35" t="s">
         <v>57</v>
@@ -9577,157 +9578,161 @@
         <v>241</v>
       </c>
       <c r="F122" s="71" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G122" s="71" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H122" s="72" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I122" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J122" s="88" t="s">
-        <v>248</v>
+      <c r="J122" s="71" t="s">
+        <v>252</v>
       </c>
       <c r="K122" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
       <c r="B123" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.status</v>
+        <v>OrderLine.shipToLocation.locationIdentifier</v>
       </c>
       <c r="C123" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D123" s="52" t="s">
-        <v>334</v>
+      <c r="D123" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="E123" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F123" s="68" t="s">
-        <v>335</v>
-      </c>
-      <c r="G123" s="68" t="s">
-        <v>528</v>
-      </c>
-      <c r="H123" s="69" t="s">
-        <v>529</v>
-      </c>
-      <c r="I123" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="J123" s="70"/>
+        <v>241</v>
+      </c>
+      <c r="F123" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="88" t="s">
+        <v>248</v>
+      </c>
       <c r="K123" s="41" t="s">
-        <v>530</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="33"/>
       <c r="B124" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.archived</v>
+        <v>OrderLine.shipFromInstructionLocation.locationIdentifier</v>
       </c>
       <c r="C124" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D124" s="100" t="s">
-        <v>32</v>
+      <c r="D124" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="E124" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F124" s="68" t="s">
-        <v>477</v>
-      </c>
-      <c r="G124" s="68" t="s">
-        <v>478</v>
-      </c>
-      <c r="H124" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" s="70" t="s">
-        <v>419</v>
-      </c>
-      <c r="J124" s="70"/>
+        <v>241</v>
+      </c>
+      <c r="F124" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I124" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" s="88" t="s">
+        <v>248</v>
+      </c>
       <c r="K124" s="41" t="s">
-        <v>531</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="33"/>
       <c r="B125" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.createdDate</v>
-      </c>
-      <c r="C125" s="57" t="s">
+        <v>OrderLine.status</v>
+      </c>
+      <c r="C125" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D125" s="100" t="s">
-        <v>32</v>
+      <c r="D125" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="E125" s="37" t="s">
         <v>319</v>
       </c>
       <c r="F125" s="68" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
       <c r="G125" s="68" t="s">
-        <v>34</v>
+        <v>528</v>
       </c>
       <c r="H125" s="69" t="s">
-        <v>238</v>
+        <v>529</v>
       </c>
       <c r="I125" s="70" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J125" s="70"/>
-      <c r="K125" s="34" t="s">
-        <v>216</v>
+      <c r="K125" s="41" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="33"/>
       <c r="B126" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.requestedShipDate</v>
-      </c>
-      <c r="C126" s="57" t="s">
+        <v>OrderLine.archived</v>
+      </c>
+      <c r="C126" s="35" t="s">
         <v>57</v>
       </c>
       <c r="D126" s="100" t="s">
         <v>32</v>
       </c>
       <c r="E126" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F126" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="G126" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="H126" s="69" t="s">
-        <v>238</v>
+        <v>314</v>
+      </c>
+      <c r="F126" s="68" t="s">
+        <v>477</v>
+      </c>
+      <c r="G126" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="H126" s="69" t="b">
+        <v>0</v>
       </c>
       <c r="I126" s="70" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="J126" s="70"/>
-      <c r="K126" s="34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K126" s="41" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="33"/>
       <c r="B127" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.requestedDeliveryDate</v>
+        <v>OrderLine.createdDate</v>
       </c>
       <c r="C127" s="57" t="s">
         <v>57</v>
@@ -9738,11 +9743,11 @@
       <c r="E127" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F127" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="G127" s="111" t="s">
-        <v>39</v>
+      <c r="F127" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" s="68" t="s">
+        <v>34</v>
       </c>
       <c r="H127" s="69" t="s">
         <v>238</v>
@@ -9752,14 +9757,14 @@
       </c>
       <c r="J127" s="70"/>
       <c r="K127" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="33"/>
       <c r="B128" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.plannedShipDate</v>
+        <v>OrderLine.requestedShipDate</v>
       </c>
       <c r="C128" s="57" t="s">
         <v>57</v>
@@ -9768,13 +9773,13 @@
         <v>32</v>
       </c>
       <c r="E128" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="F128" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="G128" s="68" t="s">
-        <v>41</v>
+        <v>319</v>
+      </c>
+      <c r="F128" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" s="111" t="s">
+        <v>37</v>
       </c>
       <c r="H128" s="69" t="s">
         <v>238</v>
@@ -9784,14 +9789,14 @@
       </c>
       <c r="J128" s="70"/>
       <c r="K128" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33"/>
       <c r="B129" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.plannedDeliveryDate</v>
+        <v>OrderLine.requestedDeliveryDate</v>
       </c>
       <c r="C129" s="57" t="s">
         <v>57</v>
@@ -9802,11 +9807,11 @@
       <c r="E129" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F129" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129" s="68" t="s">
-        <v>43</v>
+      <c r="F129" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="111" t="s">
+        <v>39</v>
       </c>
       <c r="H129" s="69" t="s">
         <v>238</v>
@@ -9816,14 +9821,14 @@
       </c>
       <c r="J129" s="70"/>
       <c r="K129" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33"/>
       <c r="B130" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.lastModifiedDate</v>
+        <v>OrderLine.plannedShipDate</v>
       </c>
       <c r="C130" s="57" t="s">
         <v>57</v>
@@ -9832,13 +9837,13 @@
         <v>32</v>
       </c>
       <c r="E130" s="37" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="F130" s="68" t="s">
-        <v>474</v>
+        <v>40</v>
       </c>
       <c r="G130" s="68" t="s">
-        <v>475</v>
+        <v>41</v>
       </c>
       <c r="H130" s="69" t="s">
         <v>238</v>
@@ -9848,78 +9853,78 @@
       </c>
       <c r="J130" s="70"/>
       <c r="K130" s="34" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="33"/>
       <c r="B131" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.quantity</v>
-      </c>
-      <c r="C131" s="35" t="s">
+        <v>OrderLine.plannedDeliveryDate</v>
+      </c>
+      <c r="C131" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D131" s="56" t="s">
-        <v>44</v>
+      <c r="D131" s="100" t="s">
+        <v>32</v>
       </c>
       <c r="E131" s="37" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="F131" s="68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G131" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="H131" s="69">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="H131" s="69" t="s">
+        <v>238</v>
       </c>
       <c r="I131" s="70" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J131" s="70"/>
-      <c r="K131" s="41" t="s">
-        <v>194</v>
+      <c r="K131" s="34" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="33"/>
       <c r="B132" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.quantityUnits</v>
+        <v>OrderLine.lastModifiedDate</v>
       </c>
       <c r="C132" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D132" s="56" t="s">
-        <v>44</v>
+      <c r="D132" s="100" t="s">
+        <v>32</v>
       </c>
       <c r="E132" s="37" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="F132" s="68" t="s">
-        <v>48</v>
+        <v>474</v>
       </c>
       <c r="G132" s="68" t="s">
-        <v>49</v>
+        <v>475</v>
       </c>
       <c r="H132" s="69" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="I132" s="70" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J132" s="70"/>
       <c r="K132" s="34" t="s">
-        <v>201</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33"/>
       <c r="B133" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.productValue</v>
+        <v>OrderLine.quantity</v>
       </c>
       <c r="C133" s="35" t="s">
         <v>57</v>
@@ -9928,65 +9933,64 @@
         <v>44</v>
       </c>
       <c r="E133" s="37" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="F133" s="68" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G133" s="68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H133" s="69">
-        <f>H134/5</f>
-        <v>2170</v>
+        <v>5</v>
       </c>
       <c r="I133" s="70" t="s">
         <v>47</v>
       </c>
       <c r="J133" s="70"/>
       <c r="K133" s="41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="33"/>
       <c r="B134" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.value</v>
-      </c>
-      <c r="C134" s="35" t="s">
+        <v>OrderLine.quantityUnits</v>
+      </c>
+      <c r="C134" s="57" t="s">
         <v>57</v>
       </c>
       <c r="D134" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E134" s="37" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="F134" s="68" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G134" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="H134" s="69">
-        <v>10850</v>
+        <v>49</v>
+      </c>
+      <c r="H134" s="69" t="s">
+        <v>50</v>
       </c>
       <c r="I134" s="70" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J134" s="70"/>
-      <c r="K134" s="41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="33"/>
       <c r="B135" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.valueCurrency</v>
-      </c>
-      <c r="C135" s="57" t="s">
+        <v>OrderLine.productValue</v>
+      </c>
+      <c r="C135" s="35" t="s">
         <v>57</v>
       </c>
       <c r="D135" s="56" t="s">
@@ -9996,27 +10000,28 @@
         <v>319</v>
       </c>
       <c r="F135" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G135" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="H135" s="69" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="H135" s="69">
+        <f>H136/5</f>
+        <v>2170</v>
       </c>
       <c r="I135" s="70" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J135" s="70"/>
-      <c r="K135" s="34" t="s">
-        <v>191</v>
+      <c r="K135" s="41" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="33"/>
       <c r="B136" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.openQuantity</v>
+        <v>OrderLine.value</v>
       </c>
       <c r="C136" s="35" t="s">
         <v>57</v>
@@ -10024,63 +10029,63 @@
       <c r="D136" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E136" s="112" t="s">
-        <v>314</v>
+      <c r="E136" s="37" t="s">
+        <v>241</v>
       </c>
       <c r="F136" s="68" t="s">
-        <v>533</v>
+        <v>69</v>
       </c>
       <c r="G136" s="68" t="s">
-        <v>534</v>
-      </c>
-      <c r="H136" s="69" t="s">
-        <v>535</v>
+        <v>52</v>
+      </c>
+      <c r="H136" s="69">
+        <v>10850</v>
       </c>
       <c r="I136" s="70" t="s">
         <v>47</v>
       </c>
       <c r="J136" s="70"/>
       <c r="K136" s="41" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="33"/>
       <c r="B137" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.shippedQuantity</v>
-      </c>
-      <c r="C137" s="35" t="s">
+        <v>OrderLine.valueCurrency</v>
+      </c>
+      <c r="C137" s="57" t="s">
         <v>57</v>
       </c>
       <c r="D137" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E137" s="112" t="s">
-        <v>314</v>
+      <c r="E137" s="37" t="s">
+        <v>241</v>
       </c>
       <c r="F137" s="68" t="s">
-        <v>537</v>
+        <v>70</v>
       </c>
       <c r="G137" s="68" t="s">
-        <v>538</v>
+        <v>54</v>
       </c>
       <c r="H137" s="69" t="s">
-        <v>535</v>
+        <v>55</v>
       </c>
       <c r="I137" s="70" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J137" s="70"/>
-      <c r="K137" s="41" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K137" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="33"/>
       <c r="B138" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.deliveredQuantity</v>
+        <v>OrderLine.openQuantity</v>
       </c>
       <c r="C138" s="35" t="s">
         <v>57</v>
@@ -10092,10 +10097,10 @@
         <v>314</v>
       </c>
       <c r="F138" s="68" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G138" s="68" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H138" s="69" t="s">
         <v>535</v>
@@ -10105,14 +10110,14 @@
       </c>
       <c r="J138" s="70"/>
       <c r="K138" s="41" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="33"/>
       <c r="B139" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.shipmentCount</v>
+        <v>OrderLine.shippedQuantity</v>
       </c>
       <c r="C139" s="35" t="s">
         <v>57</v>
@@ -10120,95 +10125,95 @@
       <c r="D139" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E139" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F139" s="103" t="s">
-        <v>543</v>
-      </c>
-      <c r="G139" s="103" t="s">
-        <v>544</v>
-      </c>
-      <c r="H139" s="69">
-        <v>5</v>
+      <c r="E139" s="112" t="s">
+        <v>314</v>
+      </c>
+      <c r="F139" s="68" t="s">
+        <v>537</v>
+      </c>
+      <c r="G139" s="68" t="s">
+        <v>538</v>
+      </c>
+      <c r="H139" s="69" t="s">
+        <v>535</v>
       </c>
       <c r="I139" s="70" t="s">
-        <v>356</v>
+        <v>47</v>
       </c>
       <c r="J139" s="70"/>
       <c r="K139" s="41" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="33"/>
       <c r="B140" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.description</v>
-      </c>
-      <c r="C140" s="102" t="s">
+        <v>OrderLine.deliveredQuantity</v>
+      </c>
+      <c r="C140" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D140" s="63" t="s">
-        <v>56</v>
+      <c r="D140" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="E140" s="112" t="s">
         <v>314</v>
       </c>
-      <c r="F140" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="G140" s="103" t="s">
-        <v>6</v>
+      <c r="F140" s="68" t="s">
+        <v>540</v>
+      </c>
+      <c r="G140" s="68" t="s">
+        <v>541</v>
       </c>
       <c r="H140" s="69" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="I140" s="70" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J140" s="70"/>
-      <c r="K140" s="104" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="33"/>
       <c r="B141" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.remark</v>
-      </c>
-      <c r="C141" s="102" t="s">
+        <v>OrderLine.shipmentCount</v>
+      </c>
+      <c r="C141" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D141" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E141" s="112" t="s">
-        <v>314</v>
+      <c r="D141" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="F141" s="103" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G141" s="103" t="s">
-        <v>549</v>
-      </c>
-      <c r="H141" s="69" t="s">
-        <v>550</v>
+        <v>544</v>
+      </c>
+      <c r="H141" s="69">
+        <v>5</v>
       </c>
       <c r="I141" s="70" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="J141" s="70"/>
-      <c r="K141" s="104" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K141" s="41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="33"/>
       <c r="B142" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.chargeCategory</v>
+        <v>OrderLine.description</v>
       </c>
       <c r="C142" s="102" t="s">
         <v>57</v>
@@ -10220,91 +10225,91 @@
         <v>314</v>
       </c>
       <c r="F142" s="103" t="s">
-        <v>552</v>
+        <v>71</v>
       </c>
       <c r="G142" s="103" t="s">
-        <v>553</v>
+        <v>6</v>
       </c>
       <c r="H142" s="69" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I142" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J142" s="70"/>
       <c r="K142" s="104" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="33"/>
       <c r="B143" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.changeStatus</v>
-      </c>
-      <c r="C143" s="35" t="s">
+        <v>OrderLine.remark</v>
+      </c>
+      <c r="C143" s="102" t="s">
         <v>57</v>
       </c>
       <c r="D143" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E143" s="37" t="s">
+      <c r="E143" s="112" t="s">
         <v>314</v>
       </c>
-      <c r="F143" s="105" t="s">
-        <v>556</v>
-      </c>
-      <c r="G143" s="105" t="s">
-        <v>557</v>
-      </c>
-      <c r="H143" s="106" t="s">
-        <v>558</v>
+      <c r="F143" s="103" t="s">
+        <v>548</v>
+      </c>
+      <c r="G143" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="H143" s="69" t="s">
+        <v>550</v>
       </c>
       <c r="I143" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J143" s="70"/>
-      <c r="K143" s="41" t="s">
-        <v>559</v>
+      <c r="K143" s="104" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="33"/>
       <c r="B144" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.changeCode</v>
-      </c>
-      <c r="C144" s="35" t="s">
+        <v>OrderLine.chargeCategory</v>
+      </c>
+      <c r="C144" s="102" t="s">
         <v>57</v>
       </c>
       <c r="D144" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E144" s="37" t="s">
+      <c r="E144" s="112" t="s">
         <v>314</v>
       </c>
-      <c r="F144" s="105" t="s">
-        <v>560</v>
-      </c>
-      <c r="G144" s="105" t="s">
-        <v>561</v>
-      </c>
-      <c r="H144" s="106">
-        <v>99</v>
+      <c r="F144" s="103" t="s">
+        <v>552</v>
+      </c>
+      <c r="G144" s="103" t="s">
+        <v>553</v>
+      </c>
+      <c r="H144" s="69" t="s">
+        <v>554</v>
       </c>
       <c r="I144" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J144" s="70"/>
-      <c r="K144" s="41" t="s">
-        <v>562</v>
+      <c r="K144" s="104" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="33"/>
       <c r="B145" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.mrpControllerCode</v>
+        <v>OrderLine.changeStatus</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>57</v>
@@ -10316,27 +10321,27 @@
         <v>314</v>
       </c>
       <c r="F145" s="105" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G145" s="105" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H145" s="106" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="I145" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J145" s="70"/>
       <c r="K145" s="41" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="33"/>
       <c r="B146" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>OrderLine.customAttributes</v>
+        <v>OrderLine.changeCode</v>
       </c>
       <c r="C146" s="35" t="s">
         <v>57</v>
@@ -10347,26 +10352,90 @@
       <c r="E146" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="F146" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="G146" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="H146" s="69"/>
-      <c r="I146" s="70" t="str">
-        <f>C146&amp;"CustomAttributes"</f>
-        <v>OrderLineCustomAttributes</v>
+      <c r="F146" s="105" t="s">
+        <v>560</v>
+      </c>
+      <c r="G146" s="105" t="s">
+        <v>561</v>
+      </c>
+      <c r="H146" s="106">
+        <v>99</v>
+      </c>
+      <c r="I146" s="70" t="s">
+        <v>11</v>
       </c>
       <c r="J146" s="70"/>
       <c r="K146" s="41" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="33"/>
+      <c r="B147" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>OrderLine.mrpControllerCode</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E147" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F147" s="105" t="s">
+        <v>563</v>
+      </c>
+      <c r="G147" s="105" t="s">
+        <v>564</v>
+      </c>
+      <c r="H147" s="106" t="s">
+        <v>565</v>
+      </c>
+      <c r="I147" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" s="70"/>
+      <c r="K147" s="41" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="33"/>
+      <c r="B148" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>OrderLine.customAttributes</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D148" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E148" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F148" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G148" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="H148" s="69"/>
+      <c r="I148" s="70" t="str">
+        <f>C148&amp;"CustomAttributes"</f>
+        <v>OrderLineCustomAttributes</v>
+      </c>
+      <c r="J148" s="70"/>
+      <c r="K148" s="41" t="s">
         <v>567</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K146" xr:uid="{5EDDB8E2-84ED-4AC0-ADF5-490C5CCD36C1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K146">
-      <sortCondition ref="A1:A146"/>
+  <autoFilter ref="A1:K148" xr:uid="{5EDDB8E2-84ED-4AC0-ADF5-490C5CCD36C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K148">
+      <sortCondition ref="A1:A148"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E2:E1048576">
@@ -10379,18 +10448,18 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82 H91 H100:H103 H107:H115 H124:H125 H135:H141 H145:H146">
+  <conditionalFormatting sqref="H84 H93 H102:H105 H109:H117 H126:H127 H137:H143 H147:H148">
     <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H58" r:id="rId1" display="http://yahoo.com/news" xr:uid="{BA73C73F-3AC3-4986-821D-0018F3DB61C1}"/>
-    <hyperlink ref="H74" r:id="rId2" xr:uid="{E4796626-B9A7-4735-A311-AA2BFB6B2FE4}"/>
+    <hyperlink ref="H60" r:id="rId1" display="http://yahoo.com/news" xr:uid="{BA73C73F-3AC3-4986-821D-0018F3DB61C1}"/>
+    <hyperlink ref="H76" r:id="rId2" xr:uid="{E4796626-B9A7-4735-A311-AA2BFB6B2FE4}"/>
     <hyperlink ref="H12" r:id="rId3" display="http://yahoo.com/news" xr:uid="{DBB4168D-6527-4FBB-854A-CA9901DA50D4}"/>
-    <hyperlink ref="H37" r:id="rId4" display="http://yahoo.com/news" xr:uid="{29B8D45B-7C26-493A-9FC5-780C84C49559}"/>
+    <hyperlink ref="H39" r:id="rId4" display="http://yahoo.com/news" xr:uid="{29B8D45B-7C26-493A-9FC5-780C84C49559}"/>
     <hyperlink ref="H27" r:id="rId5" display="http://yahoo.com/news" xr:uid="{66BB77B9-88DE-4F4E-9C46-9E676EE3C567}"/>
-    <hyperlink ref="H67" r:id="rId6" display="http://yahoo.com/news" xr:uid="{364565AC-9DF7-40BA-B434-AB5DB4114FBD}"/>
+    <hyperlink ref="H69" r:id="rId6" display="http://yahoo.com/news" xr:uid="{364565AC-9DF7-40BA-B434-AB5DB4114FBD}"/>
     <hyperlink ref="H23" r:id="rId7" display="http://yahoo.com/news" xr:uid="{1EB99164-C888-44FD-AF0E-A2949D7FEB15}"/>
     <hyperlink ref="H24" r:id="rId8" display="http://yahoo.com/news" xr:uid="{4ADC9209-B0CC-4483-9AE4-1BF8CB670692}"/>
   </hyperlinks>
@@ -10404,12 +10473,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A715CE6-607E-4CB9-88C8-AD050695EBCC}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F77" sqref="F76:F77"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12176,6 +12246,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140ED1C7-E251-41CB-89AD-A01A0DEAF072}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
